--- a/Test_Results.xlsx
+++ b/Test_Results.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>RequiredExperience</t>
+          <t>Segment</t>
         </is>
       </c>
     </row>
@@ -478,20 +478,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,15 +507,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -541,11 +533,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,15 +553,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -588,20 +572,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -623,11 +603,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -642,18 +618,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -668,20 +640,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -696,18 +664,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -727,15 +691,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -755,15 +715,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -778,20 +734,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -806,20 +758,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -839,15 +787,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -867,15 +811,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -895,15 +835,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,20 +854,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -951,15 +883,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -979,15 +907,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1002,18 +926,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1028,18 +948,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1059,15 +975,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1089,11 +1001,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1113,15 +1021,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1143,9 +1047,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1165,15 +1067,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,20 +1086,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1223,11 +1117,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,20 +1132,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1270,20 +1156,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1303,15 +1185,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1326,20 +1204,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1359,15 +1233,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1387,15 +1257,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1410,20 +1276,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1438,20 +1300,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1466,20 +1324,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1499,15 +1353,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1522,18 +1372,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>2</v>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1555,11 +1401,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1574,18 +1416,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>15</v>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1600,20 +1438,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1628,20 +1462,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1663,11 +1493,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1682,18 +1508,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1715,11 +1537,7 @@
         <v>4</v>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1739,15 +1557,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1769,11 +1583,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1788,20 +1598,16 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1821,15 +1627,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1849,15 +1651,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1877,15 +1675,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1907,11 +1701,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1931,15 +1721,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1954,18 +1740,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1980,20 +1762,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2008,20 +1786,16 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2036,20 +1810,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2071,11 +1841,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2090,20 +1856,16 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2125,11 +1887,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2144,18 +1902,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2175,15 +1929,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2255,11 +2005,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2325,11 +2071,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2393,11 +2135,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2459,15 +2197,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2521,15 +2255,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2606,15 +2336,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2671,15 +2397,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2743,15 +2465,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2824,15 +2542,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2878,15 +2592,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2937,15 +2647,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3000,15 +2706,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3064,15 +2766,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3140,15 +2838,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3200,11 +2894,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3264,15 +2954,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3383,15 +3069,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3422,15 +3104,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3464,16 +3142,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>8</v>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="n">
-        <v>8</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3511,11 +3187,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3585,11 +3257,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3646,11 +3314,7 @@
         <v>4</v>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3725,9 +3389,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
-        <v>9</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3777,15 +3439,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3838,15 +3496,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3922,11 +3576,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3964,15 +3614,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4037,11 +3683,7 @@
         <v>6</v>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4111,13 +3753,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="n">
-        <v>5</v>
-      </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4162,15 +3802,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4233,11 +3869,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4282,16 +3914,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>10</v>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="n">
-        <v>10</v>
-      </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4334,11 +3964,7 @@
         <v>3</v>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4380,15 +4006,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4452,15 +4074,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4508,15 +4126,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4597,9 +4211,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="n">
-        <v>3</v>
-      </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4671,9 +4283,7 @@
         <v>5</v>
       </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="n">
-        <v>5</v>
-      </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4738,15 +4348,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4795,18 +4401,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D104" t="n">
         <v>2</v>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4868,20 +4470,16 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4923,15 +4521,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4973,9 +4567,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="n">
-        <v>2</v>
-      </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5022,15 +4614,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5112,15 +4700,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5179,15 +4763,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5253,15 +4833,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5324,9 +4900,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="n">
-        <v>2</v>
-      </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5401,15 +4975,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5454,11 +5024,7 @@
         <v>3</v>
       </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5518,15 +5084,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5589,11 +5151,7 @@
         <v>4</v>
       </c>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5647,11 +5205,7 @@
         <v>10</v>
       </c>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5711,11 +5265,7 @@
         <v>5</v>
       </c>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5786,11 +5336,7 @@
         <v>3</v>
       </c>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5843,15 +5389,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5929,16 +5471,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D121" t="n">
         <v>5</v>
       </c>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="n">
-        <v>5</v>
-      </c>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5973,9 +5513,7 @@
         <v>5</v>
       </c>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="n">
-        <v>5</v>
-      </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6024,15 +5562,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6101,11 +5635,7 @@
         <v>5</v>
       </c>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6152,11 +5682,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6217,11 +5743,7 @@
         <v>10</v>
       </c>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6268,15 +5790,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6332,15 +5850,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6406,15 +5920,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6494,11 +6004,7 @@
         <v>4</v>
       </c>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6555,20 +6061,16 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6613,11 +6115,7 @@
         <v>5</v>
       </c>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6694,15 +6192,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6749,15 +6243,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6834,11 +6324,7 @@
         <v>5</v>
       </c>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6894,15 +6380,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6963,9 +6445,7 @@
         <v>5</v>
       </c>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="n">
-        <v>5</v>
-      </c>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7008,15 +6488,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7084,15 +6560,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7176,9 +6648,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="n">
-        <v>1</v>
-      </c>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7231,11 +6701,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7280,15 +6746,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7381,11 +6843,7 @@
         <v>10</v>
       </c>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7437,11 +6895,7 @@
         <v>5</v>
       </c>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7514,9 +6968,7 @@
         <v>5</v>
       </c>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="n">
-        <v>10</v>
-      </c>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7573,18 +7025,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D146" t="n">
         <v>6</v>
       </c>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7629,20 +7077,16 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7702,11 +7146,7 @@
         <v>3</v>
       </c>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7751,15 +7191,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7823,15 +7259,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7853,15 +7285,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7883,15 +7311,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7913,15 +7337,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7945,11 +7365,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7973,9 +7389,7 @@
         <v>3</v>
       </c>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="n">
-        <v>3</v>
-      </c>
+      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7997,15 +7411,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8027,15 +7437,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8059,11 +7465,7 @@
         <v>2</v>
       </c>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8087,9 +7489,7 @@
         <v>2</v>
       </c>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="n">
-        <v>2</v>
-      </c>
+      <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8111,15 +7511,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8141,15 +7537,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8171,15 +7563,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8203,9 +7591,7 @@
         <v>3</v>
       </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="n">
-        <v>3</v>
-      </c>
+      <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8229,11 +7615,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8257,11 +7639,7 @@
         <v>5</v>
       </c>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8285,11 +7663,7 @@
         <v>5</v>
       </c>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8311,15 +7685,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8341,15 +7711,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8373,11 +7739,7 @@
         <v>3</v>
       </c>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8394,20 +7756,16 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8429,15 +7787,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8459,15 +7813,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8489,15 +7839,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8512,20 +7858,16 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8540,18 +7882,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Master's Degree </t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="D175" t="n">
         <v>4</v>
       </c>
       <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8571,15 +7909,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Undefined </t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Undefined</t>
-        </is>
-      </c>
+      <c r="F176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test_Results.xlsx
+++ b/Test_Results.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="248">
   <si>
     <t xml:space="preserve">Descriptions</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Experience</t>
   </si>
   <si>
-    <t xml:space="preserve">JobType</t>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Segment</t>
@@ -52,6 +52,12 @@
     <t xml:space="preserve">Undefined</t>
   </si>
   <si>
+    <t xml:space="preserve">Engineering and Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy and Raw Materials</t>
+  </si>
+  <si>
     <t xml:space="preserve">Audio Evaluator - German Speakers (DE) About TELUS International AI We help companies test and improve machine learning models via our global AI Community of 1 million+ annotators and linguists. Our proprietary AI training platform handles all data types (text, images, audio, video and geo) across 500+ languages and dialects. Our AI Data Solutions vastly enhance AI systems across a range of applications from advanced smart products, to better search results, to expanded speech recognition, to more human-like bot interactions and so much more.QAers will be asked to listen to recorded audio, verify the content matches provided script and transcribe if there is any deviation. They should also verify the overall quality of the audio (absence of noise, clarity and naturalness of speech). The estimated time spent on each item is 30 seconds.Workload: Approx. 20-25 hours per month.Compensation: $0.18/item Payments will be issued through our TELUS International AI Community PlatformEqual OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, s*x, s*xual orientation, gender identity, national origin, disability or protected veteran status. As the global arm of TELUS Corporation, at TELUS International, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of hiring are based on applicants’ qualifications, merits, competence and performance without regard to any characteristic related to diversity. Research FieldOtherEducation LevelUndergraduate Specific RequirementsRequirements: - Age 18+ - Native German speaker (Germany) - Preferred availability: flexible 6 to 11 hours per week. LanguagesGERMANLevelMother Tongue LanguagesENGLISHLevelExcellent -</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t xml:space="preserve">Bachelor's Degree</t>
   </si>
   <si>
+    <t xml:space="preserve">Sales and Marketing</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-1599510 Post PHD - Synthesis and shaping of materials for optical applications This work is part of a national french research project (see 3D-MOC, https://anr.fr/Project-ANR-23-CE08-0021). Its goal is to prepare 3D multimaterials for fully integrated optical components. A glass substrate will be 3D-etched using Femtosecond Laser Irradiation combined with Chemical Etching prior to the elaboration of the samples. This will be conducted by a research team specialized in laser-matter interaction. The recruited person will be charged to prepare glasses to be inserted in the hollow structure for light guidance. The chemical solition deposition will be favored but not exclusive. Research FieldEngineering » Materials engineeringEducation LevelPhD or equivalent Research FieldChemistry » OtherEducation LevelPhD or equivalent Skills/QualificationsBibliographic research Liquid-based material synthesis Ceramic processing and characterization of inorganic materials Specific RequirementsSafety in a chemistry laboratory enviromnent Ability to work in a restricted area Ability to write publications LanguagesENGLISHLevelGood Research FieldEngineering » Materials engineeringYears of Research Experience4 - 10 Research FieldChemistry » OtherYears of Research Experience1 - 4 BenefitsNet monthly salary between 1825 and 2300 € based on former experience Eligibility criteriaAccording to French legislation, the applicant must have received a PhD degree no later than three years before the beginning of the contract Selection processCV, cover letter and copy of PhD degree to be sent by email mentioning reference of job offer at : drh-recrutement-recherche@unilim.fr Website for additional job detailshttps://www.unilim.fr/luniversite-de-limoges-recrute-un-post-doctorant-projet-3…</t>
   </si>
   <si>
@@ -70,24 +79,36 @@
     <t xml:space="preserve">PhD or Doctorate</t>
   </si>
   <si>
+    <t xml:space="preserve">Space</t>
+  </si>
+  <si>
     <t xml:space="preserve">Université Claude Bernard Lyon 1- Hosting offer for a MSCA Post-doctoral fellowship candidate  in nanoscale engineering of materials OrganisationThe Université Claude Bernard Lyon 1 welcomes Marie Sklodowska Curie Postdoctoral Fellowships applications !With 62 laboratories and more than 7000 publications per year, and leading French university in terms of the number of patents filed in collaboration with industry, Lyon 1 contributes to scientific and innovation progress in numerous fields: health, mathematics, IT, physics, chemistry, earth and space sciences, life sciences, etc. Creator of emerging knowledge and new technologies, the University is consolidating its research excellence on a global and international level by developing inter- and multidisciplinary approaches targeting the major challenges facing today society. Host research lab/teamThe Institut des Sciences Analytiques (ISA, UMR5280) is a leading research lab in Europe in analytical sciences, with complementary expertise ranging from physical sciences and materials engineering to biochemistry and sensing. ISA teams have a unique expertise in developing innovative analytical tools for the characterization of complex systems from macro to nanoscales. The research activities are organized following three main thrusts: 1) multidimensional approaches to study complex systems, 2) surfaces and miniaturization for analytical research and technologies, 3) theoretical and experimental approaches for molecular interactions. ISA also hosts several startups and fosters collaborations with industrial partners. The Surface research teamThe team specializes in engineering physico-chemical properties of surfaces and analyzing surface properties at the micro- and nano-scales (spectra and functional imaging). The team hosts state-of-the-art microscopy and spectroscopy tools to support the work. Starting in 2024, the team is launching a new activity focusing on nanoscale engineering of materials and multifunctional nanoscale characterization using atomic force microscopy (AFM). Hosting Offer The Surfaces lab offers to host a MSCA Postdoctoral Fellowship candidate (typically a post-doc of less than 8 years research experience since PhD defence), submitting an application to the next MSCA-2024 - PF call for proposals (deadline 11th September 2024), interested to work on one of the following research topics:Development of new approaches in nanoscale infrared spectroscopyDevelopment of new AFM-based analytical tools involving mass spectroscopyExploration of the microscale and nanoscale properties of complex systems (polymers, catalysts, plants, bacteria, etc) under various stimuliThe fellowship could last for 12 to 36 months, depending on the type of Postdoctoral Fellowship. SupervisionThe successful Marie-Curie Post-doctoral fellow will be supervised by Dr. Laurene Tetard.Laurene Tetard is a CNRS Research Director. Her research interests include developing new tools for nanomanipulation and nanocharacterization of complex systems of relevance to sustainability, spanning a broad range of applications from life sciences to 2D materials for catalysis. Application processInterested candidates are invited to contact us exclusively by email at laurene.tetard@isa-lyon.fr.Make sure that you include the reference to this offer in the title of your email. Please attach a CV, a motivation letter, your MSc marks, as well as a 1 page research proposal. Professional grant application support:Candidates will receive the support of the supervisors, as well as online training from a professional grant application company, and advices from successful applicants, to prepare and submit their application with the Institute of Science Analytiques UMR 5280 as a host laboratory, to the next MSCA-PF call for proposals. - -</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">Climate, Environment and Biodiversity</t>
+  </si>
+  <si>
     <t xml:space="preserve">PhD student AI-driven innovation management Your functionYou will conduct academic research within the Innovation Management (IM) research group in close collaboration with the Business Informatics (BINF) research group, both at the Faculty of Business Economics of Hasselt University, to obtain a doctoral degree in business economics. Artificial intelligence (AI) is an exciting general purpose technology with profound implications for business. This vacancy deals with the research topic of AI-augmented innovation management, and more specifically the role of AI in innovation ecosystem orchestration. Innovation ecosystems refer to multi-organizational collaborations to develop and commercialize innovative solutions to problems. Such innovation ecosystems generally require orchestration by a keystone firm (“the orchestrator”) to ensure proper coordination and control of interrelated innovation activities. The central question of this PhD project is how new developments in AI can assist keystone firms in orchestrating larger innovation ecosystems, such that more demanding innovation problems can be effectively handled. As innovation ecosystems grow more complex, with a larger number of participating organizations and stronger interdependencies between these organizations, ensuring effective orchestration with adequate coordination and control gets increasingly difficult. This PhD project is aimed at (a) identifying how emerging AI technologies can support keystone firms with their ecosystem orchestration tasks, (b) examining organizational and strategic challenges for AI-augmented ecosystem orchestration and how these can be overcome, and (c) verifying how AI adoption affects the performance of innovation ecosystems in terms of the problem complexity they can address and the quality of their innovation outputs. The primary focus of this PhD project is to study strategic and organizational aspects in relation to AI-augmented innovation management, but a strong interest in learning more about AI technologies is also required. As such, in this project you will be able to complement your business skills with technical competencies, to develop a profile that is in high demand in the labor market within and beyond academia. We are looking for a highly motivated and talented individual to join our research team as a PhD candidate. You will publish the results of your work in academic journals, participate in international conferences and seminars, and build an international network. You will also have many opportunities for further professional development, especially through the offerings of the Doctoral School of Humanities and Social Sciences. A number of teaching tasks are also part of your assignment. This includes guiding work sessions, grading exams, and supervising master thesis students.Your teamNew developments in artificial intelligence (AI) have a profound impact on the business world and how companies organize themselves. Within this doctoral project, the aim is to investigate how AI can support innovation ecosystems in solving complex innovation problems. For this research project, there is a collaboration between the research groups Innovation Management (IM) and Business Informatics (BINF) at Hasselt University. The doctoral student will be formally appointed at the IM research group, but will receive guidance from both the IM group (promotor) and the BINF group (co-promotor). The IM research group is part of the Marketing &amp; Strategy (MARS) capacity group. The central theme of this research group is strategic innovation management, with a special focus on the disruptive forces of digitalization and sustainability and how these affect businesses. The research group strives for scientific research that is both academically outstanding and practically relevant. Research conducted at the IM research group is published in leading international scientific journals such as the Journal of Management, Journal of Management Studies, and Research Policy, as well as in practitioner magazines with a global reach such as Harvard Business Review, and MIT Sloan Management Review. Research FieldEngineeringEducation LevelMaster Degree or equivalent Skills/QualificationsYou have, or will have by October 2024, a master’s degree in Management, Business Administration, (Business) Economics, Business Engineering, Business and Information Systems Engineering (or equivalent) Final-year students are (likewise) encouraged to apply.You have a strong interest in scientific research in general and in the PhD topic specifically, which combines the themes of business and technology.You demonstrate the necessary critical attitude as a researcher.You have excellent project management skills.You have strong problem-solving skills.You work accurately with a focus on high-quality end results.You are proactive and show initiative.You can work systematically and in a self-directed manner.You can work independently as well as in a team.You have good oral and written communication skills in English.Knowledge of Dutch is a plus. LanguagesENGLISHLevelBasic Research FieldEngineering -</t>
   </si>
   <si>
     <t xml:space="preserve">Research FieldEngineeringEducation LevelMaster Degree or equivalent Skills/QualificationsYou have, or will have by October 2024, a master’s degree in Management, Business Administration, (Business) Economics, Business Engineering, Business and Information Systems Engineering (or equivalent) Final-year students are (likewise) encouraged to apply.You have a strong interest in scientific research in general and in the PhD topic specifically, which combines the themes of business and technology.You demonstrate the necessary critical attitude as a researcher.You have excellent project management skills.You have strong problem-solving skills.You work accurately with a focus on high-quality end results.You are proactive and show initiative.You can work systematically and in a self-directed manner.You can work independently as well as in a team.You have good oral and written communication skills in English.Knowledge of Dutch is a plus. LanguagesENGLISHLevelBasic Research FieldEngineering</t>
   </si>
   <si>
+    <t xml:space="preserve">Consumer Solutions, Tourism, Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">Business development manager Let’s shape the future - University of Antwerp The University of Antwerp is a dynamic, forward-thinking, European university. We offer an innovative academic education to more than 20000 students, conduct pioneering scientific research and play an important service-providing role in society. We are one of the largest, most international and most innovative employers in the region. With more than 6000 employees from 100 different countries, we are helping to build tomorrow's world every day. Through top scientific research, we push back boundaries and set a course for the future – a future that you can help to shape. University of Antwerp is recruiting a Business Development Manager for its Centre for the Evaluation of Vaccination (CEV) which is located at Vaccinopolis, Edegem, Belgium The CEV is a research centre of the University of Antwerp (UAntwerp), headed by Prof. Van Damme, having a long standing expertise on the assessment of new vaccines and is offering services in the field of clinical trials for vaccines. Besides ambulatory vaccine trials, it offers CHIM (Controlled Human Infectious Model) studies with the goal to accelerate the evaluation and development of vaccine candidates. The CEV is located at Vaccinopolis, a new state-of-the-art facility from UAntwerp. Vaccinopolis has a unique 30-bed capacity under biosafety level-3 (BSL-3) conditions which allows it to perform CHIM studies with pathogens such as SARS-CoV-2. Next to the human challenge capability, the centre offers a large BSL-2 and BSL-3 lab capacity as well as an ambulatory vaccine trial unit. For the above services, CEV is looking for a BUSINESS DEVELOPMENT MANAGER. Position You will be responsible for developing our vaccine clinical trial service business, with a focus on CHIM studies. You will manage existing customer accounts while also developing new business opportunities with biotech and pharma companies and/or Universities and Research Institutes in Europe and Rest of the World (RoW). The position is located in Antwerp, Belgium. In this function at least 25% travel will be required. Further tasks and responsibilities You will be part of the management team and be responsible for preparing and implementing a strategic business plan based on market need, industry insights and calls for proposals of funding agencies. Ensure that the income from clinical studies is in line with the business plan. Follow up requests for proposals (RFP) and prepare them with the Vaccinopolis team in a timely and professional manner. Develop and maintain long-term business relationships with partners and strategic suppliers/subcontractors. Call on existing and potential new partners and present them with Vaccinopolis services with focus on CHIM studies, while also highlighting the other services related to vaccine clinical trials. Identify pro-actively key stakeholders and networks to establish new opportunities worldwide. Recognize new opportunities and define corresponding improvements and extension of the clinical trial service offering based on the market needs. Work with the Vaccinopolis team members to evaluate and assess new projects in order to prepare budget proposals in a given timeframe. Work with the Vaccinopolis team members to ensure that the projects are well planned and executed on time, with the required quality according to the applicable regulations and within the foreseen budget. Ensure that customers are fully informed via written and/or verbal communication. Develop contracts together with the customers in close interaction with the legal department and be responsible for their monitoring and compliance. Support client visits to Vaccinopolis. Represent and promote Vaccinopolis at conferences, meetings and networking events. Ensure that the website, LinkedIn and other social media are up-to-date. Develop various promotional materials, such as pitches and presentations and ensure that these are regularly updated. Profile A medical degree and/or a PhD in life sciences, with experience in the area of vaccines and/or infectious diseases. Minimum 10 years of relevant experience in the pharmaceutical/biotech industry, with experience in clinical trials. Experience with CHIM studies would be an asset. Minimum 5 years of experience in business development in a pharma environment. Knowledge of GCP, GMP, and GCLP. Outstanding organisational and presentation skills. Excellent relationship builder with strong communication and interpersonal skills, able to gain buy-in both internal and external. Able to manage complex projects, multi-task and plan strategically. Ability for decision-making, problem solving and to have a foresight into potential issues is required. Skills with MS Word, Excel and PowerPoint is required. You are fluent in Dutch and English. Fluency in French is an asset. What we offer We offer a fulltime appointment for an unlimited period after a positive evaluation at the end of the first year. A part-time appointment is a possibility and can be discussed. Your gross monthly salary is calculated according to the pay scales in the Contract Research Staff category (Dutch: Bijzonder Academisch Personeel, BAP). Initial pay scale will be determined on experience. The planned start date is 1 January 2025 or as soon as possible after that date. Your office will be in Vaccinopolis at Campus Drie Eiken in Edegem in a dynamic and stimulating working environment. Frequent travel will be required and home work is acceptable. Find out more about working at the University of Antwerp here. Want to apply? You can apply for this vacancy through the UAntwerp’s online job application platform up to and including 30 September 2024 (by midnight Brussels time). Click on 'apply', complete the online application form and don’t forget to include the following document(s): (1) a motivation letter, (2) your CV. The selection committee will review all of the applications as soon as possible after the application deadline. As soon as a decision has been made, we will inform you about the next steps in the selection procedure. If you have any questions about the online application form, please check the frequently asked questions or send an email to jobs@uantwerpen.be. If you have any questions about the job itself, please contact: bart.vanmeerbergen@uantwerpen.be The University of Antwerp received the European Commission’s HR Excellence in Research Award for its HR policy. We are a sustainable, family-friendly organisation which invests in its employees’ growth. We encourage diversity and attach great importance to an inclusive working environment and equal opportunities, regardless of gender identity, disability, race, ethnicity, religion or belief, sexual orientation or age. We encourage people from diverse backgrounds and with diverse characteristics to apply. Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldMedical sciencesYears of Research ExperienceMore than 10 Research FieldPharmacological sciencesYears of Research ExperienceMore than 10 Research FieldTechnologyYears of Research ExperienceMore than 10 Website for additional job detailshttps://academicpositions.com</t>
   </si>
   <si>
     <t xml:space="preserve">Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldMedical sciencesYears of Research ExperienceMore than 10 Research FieldPharmacological sciencesYears of Research ExperienceMore than 10 Research FieldTechnologyYears of Research ExperienceMore than 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">PhD student in cell biology M/F Located on the Luminy campus, IBDM employs around 220 permanent researchers, lecturers, engineers and technicians, as well as non-permanent staff on fixed-term contracts, post-docs, PhD students and trainees, spread across 21 research teams and 11 technical platforms and services. IBDM is a joint research unit under the supervision of CNRS and AMU, exploring the field of developmental biology and associated pathologies. You will work in the "Mechanisms of gene regulation by transcription factors" team, led by Yacine GRABA and Andrew SAURIN. As the laboratory is made up of several nationalities, English is a must.Studying the transcriptional control of adult myogenesis in Drosophila. Considerable progress has been made in regenerative medicine to generate muscle cells. However, it is still not possible to create specific muscle types corresponding to a given location in the body, as it is not known how a muscle acquires its unique properties in the developmental space. It is widely accepted that Drosophila myogenesis recapitulates all the major events in muscle development that are also at work in vertebrates, such as progenitor specification, myoblast migration and fusion, muscle attachment to tendon cells or the assembly of contractile sarcomeres. This thesis project aims to determine how Hox transcription factors control the identity and development of two very distinct muscle types located along the anteroposterior axis of a developing organism, using Drosophila as a model. The project will use whole-genome profiling approaches to determine how Hox factors specify and coordinate the correct development of the flight and leg muscles of adult Drosophila, two major muscle types that enable adult locomotion. This thesis will provide an unprecedented high-resolution view of the development-related transcriptional regulation and structural properties of muscle fibers in a developing organism, and shed new light on the mechanisms determining muscle identity, type and repair. Research FieldBiological sciencesEducation LevelMaster Degree or equivalent Research FieldBiological sciencesEducation LevelMaster Degree or equivalent LanguagesFRENCHLevelBasic Research FieldBiological sciencesYears of Research ExperienceNone Research FieldBiological sciences » BiologyYears of Research ExperienceNone Additional commentsPlease send your CV, covering letter and, ideally, a letter of recommendation. Website for additional job detailshttps://emploi.cnrs.fr/Offres/Doctorant/UMR7288-AUDBAR-025/Default.aspx</t>
   </si>
   <si>
@@ -106,6 +127,9 @@
     <t xml:space="preserve">Research FieldJuridical sciencesEducation LevelMaster Degree or equivalent Skills/QualificationsCompletion of a diploma programme or master´s degree in the field of lawGood knowledge of Austrians public lawTheoretical knowledge of conflict management - Mediation (practical experiance is an advantage)Knowledge of empirical methods (desirable)Excellent command of German and EnglishExperience at an academic institute would be ideal (desirable)First relevant practical experience in the field of law (e.g. at the court or at a lawyer´s office) (desirable)Experience with research projects (desirable)Willingness to take part in the scientific discussion processHigh degree of flexibilitySelf-responsible way of working as well as ability to cooperate and work in teams LanguagesENGLISHLevelExcellent LanguagesGERMANLevelExcellent Research FieldJuridical sciencesYears of Research Experience1 - 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research associate / PhD candidate (f/m/d) Area of research:Scientific / postdoctoral postsPart-Time Suitability:The position is suitable for part-time employment.Starting date:21.06.2024Job description:The Institute of Radio Frequency Engineering and Electronics conducts research in the field of highly-integrated millimeter-wave wireless modules and integrated photonic-electronic systems as well as signal processing for radar and communication systems. Multiple research associate / PhD candidate positions are available within the following research fields:THz systems: Antennas, passive components, packaging and system concepts for highly integrated millimeter-wave and THz systems from 70 GHz to 1 THzUltra-wideband photonic-electronic systems: Packaging and interconnection technology for electronic interfacing of photonic components with wide bandwidth of more than 100 GHzSignal processing for Joint Communication and Sensing (JCAS)Radar signal processing for industrial, medical and automotive applicationsThe offered positions will provide the PhD students with a comprehensive set of theoretical and practical skills relevant for innovation and long-term employability in a rapidly growing sector. The candidates are expected to perform research activities independently, contribute to development of future research directions and participate in teaching and supervision of student theses.This research center is part of the Helmholtz Association of German Research Centers. With more than 42,000 employees and an annual budget of over € 5 billion, the Helmholtz Association is Germany's largest scientific organisation. - Website for additional job detailshttps://jobs.pse.kit.edu/en/jobs/166823/research-associate-phd-candidate-fmd</t>
   </si>
   <si>
@@ -137,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">Research FieldOtherEducation LevelPhD or equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure</t>
   </si>
   <si>
     <t xml:space="preserve">FLUP | Competition for the award of a Research Grant | "Healthy Soil for Living Permanent Culture Laboratories" Project (LivingSoiLL) | Ref. 2024/34 - Pr. 143 NOTICE OF THE CALL FOR PROPOSALS FOR THE AWARD OF 1 (ONE) RESEARCH SCHOLARSHIP FOR STUDENTS ENROLLED IN A DOCTORAL PROGRAM, WITHIN THE SCOPE OF THE PROJECT “HEALTHY SOIL TO PERMANENT CROPS LIVING LABS” (LivingSoiLL) (PROJECT NO. 101157502), CURRENTLY UNDERWAY AT THE FACULTY OF ARTS OF THE UNIVERSITY OF PORTO. This notice is open of 1 (one) research scholarship for PhD students to develop R&amp;D activities within the scope of the project “Healthy Soil to Permanent Crops Living Labs” (LivingSoiLL), Project No. 101157502, funded by the European Union through the Horizon Europe Program, currently underway at the Faculty of Arts of the University of Porto, under the following conditions: 1. Scientific field: Physical Geography/Natural Hazards/Geosciences. 2. Applicable Legislation and Regulations: Research Fellowship Holder Statute, approved by Law No. 40/2004, of August 18, in its current version; University of Porto Research Scholarship Regulations – approved by Regulation No. 184/2021, published in the Diário da República, 2nd Series, No. 43, of March 3; Legal regime for the recognition of academic degrees and diplomas awarded by foreign higher education institutions and the Code of Administrative Procedure (CPA), approved by Decree-Law No. 4/2015, of January 7. 3. Admission Requirements, to be documented: All individuals holding the following requirements may apply for this studentship, pending the submission of the corresponding documents: Hold a Master's degree in the areas of Physical Geography or Geosciences; Be a student enrolled in a Doctoral program in Geography at the University of Porto with content related to risk modeling in a GIS environment (to be verified by the time of hiring).; 4. Preferential conditions: Basic knowledge of programming (Python, R, C++, others) and advanced knowledge in GIS and spatial modeling of hydrological and/or geomorphological processes; Experience in managing environmental databases; Fieldwork experience in natural processes; Proficiency in English (oral and written communication), evidenced by certification; Availability to be away from the area of residence during fieldwork and experimental monitoring (must be referenced in the Motivation Letter).. 5. Work plan: The main activities to be carried out by the grantee within the scope of the scholarship include: Scenario modeling of precipitation climate models; Fieldwork for the installation and monitoring of climatological, hydrological, and geomorphological data, inventories of soil water erosion forms, and slope instability processes; Data processing and development of laboratory models; Spatial modeling in GIS of soil water erosion processes and slope movements; Participation in national and international conferences to disseminate the project's results; Preparation and submission of scientific articles in peer-reviewed journals. 6. Workplace: The work will be carried out at the Physical Geography Laboratory of the Department of Geography of the Faculty of Arts and Humanities of the University of Porto or in other places necessary for the execution of the work plan, accompanied by the research team formed by professors Carlos Valdir de Meneses Bateira, Susana da Silva Pereira and Gabriela Narcizo de Lima. 7. Scholarship duration: The scholarship will have a duration of 12 (twelve) months, starting on October 1, 2024 and ending on September 30, 2025, on an exclusive basis, and may be renewed according to institutional needs, up to a limit of 36 months for the execution of the work plan and financial availability, and may in no case exceed the limits defined in Regulation no. 184/2021 for the type of scholarship in question. 8. Monthly maintenance allowance: 8.1. The monthly maintenance allowance for the studentships is € 1.259,64, in accordance with Annex I of the University of Porto's Research Studentships Regulations, updated by Rectorial Order no. GR04/02/2024 of 14 February 2024, which amends the value of the University of Porto's research studentships for the year 2024. 8.2 Payment will be made by the Faculty of Arts and Humanities of the University of Porto by bank transfer. In addition to this allowance, the grant holder will be covered by personal accident insurance. 8.3 The studentships holder can join the Voluntary Social Insurance Scheme (valid for a scholarship contract of six months or more), which is optional (not compulsory) and the reimbursement corresponds to the 1st step of the contribution base. 9. Selection methods: 9.1Curriculum Evaluation (CE), evaluation of the Research Project (RP), and, if the jury deems it necessary, may be complemented by a Selection Interview (SI) with the top three candidates in CE and RP. The final score will be calculated using the following formula: (0.4 x CE) + (0.4 x RP) + (0.2 x SI). If the selection interview is not conducted, the final score will correspond to the score obtained in CE and RP. Candidates will be graded on a scale of 0-20 points 9.2. Applications considered admissible will be scored on a scale from 0 (zero) to 20 (twenty) points for each of the following evaluation criteria. 9.3. Candidates who receive a score equal to or lower than 9.5 points will be excluded during the CE phase: 9.4. The following are criteria and weighting factors for the Curriculum Evaluation (CE): I. Average grade obtained in the courses of the attended master's program (15%); II. Knowledge and experiences based on work carried out in the related themes below (60%): a) Basic knowledge of Programming (Python, R, C++, others) and advanced knowledge in GIS and spatial modeling of hydrological and/or geomorphological processes; b) Experience in environmental database management; c) Fieldwork experience in natural processes; d) Proven proficiency in the English language (spoken and written), evidenced by certification; III. Final grade of the master's program (15%); IV. Motivation Letter - Availability to be away from the area of residence during fieldwork and experimental monitoring (10%). 9.5. The following are the criteria and weighting factors for evaluating the Research Project (RP): i. Starting questions/objectives (10%); ii. State of the art on the subject (40%); iii. Data and methods to be applied (30%) iv. List of bibliographical references (20%). 9.6. The evaluation factors for the Selection Interview, if conducted, will be: i. Prospects for the candidate's scientific career (20%); ii. Framework of the proposed Research Project (PI) to be developed in the project (80%). 9.7. Candidates who score 9.5 points or less in the FC will be excluded from the competition. 9.8. The final ranking list will be drawn up on the basis of the results of the final ranking. 9.9. This competition is exclusively intended to fill the specified vacancies. If one or more candidates fail to demonstrate the profile required to carry out the work plan described within the scope of this funding, the jury reserves the right not to award the contested position(s). 10. Composition of the Selection Jury: The evaluation panel for the candidates consists of the following members: President:Professor Carlos Valdir de Meneses Bateira, Ph.D., Associate Professor at the Faculty of Arts of the University of Porto. Member:Professor Susana da Silva Pereira, Ph.D., Assistant Professor at the Faculty of Arts of the University of Porto; Member: Professor Gabriela Narcizo de Lima, Ph.D., Assistant Professor at the Faculty of Arts of the University of Porto. The panel assessing the candidates is made up of the following alternates: Member: Professor Helena Cristina Fernandes Ferreira Madureira, Ph.D., Associate Professor at the Faculty of Arts of the University of Porto; Member: Professor Laura Maria Pinheiro de Machado Soares, Ph.D., Assistant Professor at the Faculty of Arts of the University of Porto. 11. Notification/Publication of Results: 11.1. Candidates will be notified of the evaluation phase(s) of the applications that are sent to them by email, to the address they provide for this purpose, with a delivery notification receipt. 11.2. Notifications are made by email, in accordance with articles 112, paragraph 1, subparagraph c) and 113, paragraph 5, of the Administrative Procedure Code. 11.3. In accordance with the provisions of article 121 and following of the Administrative Procedure Code, after being notified, candidates have 10 working days to submit written comments. 12. Application Submission Method and Deadline: 12.1. The competition is open for until July 22th, 2024 (Local time - Lisbon) from the publication of this notice (closing at 11:59 PM local time on the final submission date). 12.2. Applications must be submitted on the FLUP website at the following address: https://sigarra.up.pt/flup/en/cnt_cand_geral.concursos_list (Refª 2024/34, Pr. 143), accompanied by the following mandatory presentation documents: Curriculum vitae of the candidate, including: identification; academic background; professional experience; participation in scientific events (with or without presentations); participation in research projects; publications; other relevant elements for the evaluation of the application; Motivation letter; Declaration of eligibility (attached); Certificate of academic qualification held (Master's degree), specifying the final grade and the grades obtained in all completed subjects. If the supporting documents for foreign degree holders do not include the final grade of the degree required in the Notice with the respective grade converted to the Portuguese grading scale, the jury will consider that the candidate has the minimum grade required for obtaining the degree in Portugal, in accordance with the provisions of paragraph 2 of article 16 of Regulation No. 184/2021 of the University of Porto; Proof of recognition of the degree, if obtained from a foreign Higher Education Institution (to be submitted by the time of hiring). Candidates with diplomas issued by foreign higher education institutions may apply and will be evaluated under the same criteria as candidates with diplomas issued by Portuguese institutions, provided that they submit, with their application, proof of the recognition of academic degrees and the conversion of the final grade to the Portuguese grading scale in accordance with applicable legislation; Proof of enrollment in the PhD program in Geography at the University of Porto (UP) as indicated in section 3, paragraph b) of this Notice (to be submitted by the time of hiring), or a declaration of honor certifying that you meet the enrollment conditions and will submit proof of enrollment by the time of hiring. In accordance with paragraph 5 of article 22 of Regulation 184/2021, "Failure to submit the required documentation within 30 days after the date of communication of the conditional award of the scholarship will result in the expiration of said award; Research Project on a topic relevant to the LivingSoiLL project, including the following points: Starting points/objectives (max. 500 words); State of the art on the topic (max. 1000 words); Data and methods to be applied (max. 1000 words); List of bibliographical references (max. 10 references); Documentary evidence of the preference conditions listed in point 4 of this Notice (if applicable); 12.3. The application and all associated documents may be written in either Portuguese or English. 12.4. Documents can be integrated into folders with a compressed format (zip, rar, 7z). However, it is necessary to take into account the system's upload limit, which is set at a maximum of 720MB per compressed file or folder. Each application can submit several compressed files or folders, each with a limit of 720 MB, and the total number of compressed files/folders submitted is not limited. 12.5. For the purpose of evaluating applications, documents accessible via links will not be considered, and their submission on the contest platform (Sigarra) is mandatory. 12.6. The documents mentioned in section 12.2. should preferably be submitted in PDF format. 12.7. Failure to meet the deadline for submitting the application, failure to submit, or submission outside the deadline of the documents mentioned in items a) to d), f), and g) of section 12.2. will result in the exclusion of the application. 12.8. The failure to submit, within the application deadline, proof of recognition of the foreign degree or diploma and conversion of the grade to the Portuguese grading scale (if applicable) mentioned in item e) of section 12.2. of this Notice, if the application is considered admissible, will result in the jury considering in the curriculum evaluation phase that the candidate has the minimum grade required for obtaining the degree in Portugal, in accordance with paragraph 2 of article 16 of Regulation No. 184/2021 of the University of Porto. 12.9. The failure to submit the documents mentioned in items e) and h) of section 12.2. does not result in the exclusion of the application. 13. Reserve list: Based on the final ranking list, a reserve list will be formed, which may be activated in case of withdrawal and/or non-submission of the required documentation by the selected individual(s). The highest authority of the Faculty reserves the right to call upon the next candidate(s) and so on until the vacancy(ies) is filled, whenever deemed appropriate and at the discretion of the Faculty. This reserve list may be activated for up to 12 (twelve) months from the date of approval of the final ranking list. 14. Non-discrimination and equal access policy: The University of Porto actively promotes a policy of non-discrimination and equal access, whereby no applicant may be privileged, benefited, disadvantaged or deprived of any right or exempted from any duty on the grounds of, in particular, ancestry, age, gender, sexual orientation, marital status, family situation, economic situation, education, social origin or condition, genetic heritage, reduced working capacity, disability, chronic illness, nationality, ethnic origin or race, territory of origin, language, religion, political or ideological convictions and trade union membership. Research FieldOtherEducation LevelMaster Degree or equivalent Internal Application form(s) needed Notice_2.pdfEnglish(146.26 KB - PDF)Download Aviso_2.pdfEnglish(225.19 KB - PDF)Download Website for additional job detailshttps://sigarra.up.pt/spup/pt/noticias_geral.ver_noticia?p_nr=77029</t>
@@ -150,7 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Faculty Recruitment Announcement</t>
@@ -160,7 +187,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -169,7 +197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Major Field of Study:Applied Linguistics</t>
@@ -179,7 +207,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">） </t>
     </r>
@@ -188,7 +217,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[Background of the recruitment and description of the project] * Background of the recruitment and description of the project Ryukoku Universityhttps://www.world.ryukoku.ac.jp/[Work content and job description] Position and Rank:Professor / Associate Professor / Lecturer Major Field of Study:Applied Linguistics Main Subjects to be Taught: English Communication, Intensive English Reading, Seminars, Research Seminars I</t>
@@ -198,7 +227,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -207,7 +237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">II</t>
@@ -217,7 +247,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">・</t>
     </r>
@@ -226,13 +257,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">III, and other subjects taught in the Faculty of International Studies* Assigned department Existing departments[Work location] * Address 612-8577 Kyoto 67 Tsukamoto-cho,Fukakusa,Fushimi-ku,Kyoto 612-8577,Japan[Number of hired] Number of hired:1 person(s) Hiring date:2025-04-01 00:00:00 Starting date:2025-04-01 00:00:00 - Benefits[Compensation] Annual salary:5 million yen Wages description:Ryukoku University regulations regarding salary and working conditions will apply. Working hours:09:00-17:15 Employment type:Regular employee Contract period:Tenured Probationary period:Probationary period absent[Various systems][Insurance][Measures for preventing passive smoking at the workplace][Supplementary explanation of compensation] Ryukoku University regulations regarding salary and working conditions will apply</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Administration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Post-doctoral Fellow in Theoretical Condensed Matter Physics in the Department of Physics Work type: Full-time Department: Department of Physics (25600) Categories: Senior Research Staff &amp; Post-doctoral FellowPost-doctoral Fellow in Theoretical Condensed Matter Physics in the Department of Physics (Ref.: 525878)We now invite applications for the captioned posts in Prof. Wang YAO’s group (2 posts available).Duties and ResponsibilitiesWork on projects related to 2D quantum materials and twistronicsRequirementsa Ph.D. degree in physicsthe ability to work independently and in a teamself-motivated and responsibleWhat We OfferThe appointment will commence as soon as possible on a temporary basis for 2 years, with the possibility of renewal subject to satisfactory performance and funding availability. A highly competitive salary commensurate with qualifications and experience will be offered. Other benefits include annual leave, medical benefits and free access to on-campus gyms and libraries.How to ApplyThe University only accepts online application for the above posts. Applicants should apply online at the University’s Careers site (https://jobs.hku.hk) and upload an up-to-date C.V. They should also arrange 3 referees to send reference letters to Prof. Wang YAO by email (wangyao@hku.hk) directly. Review of applications will start as soon as possible and continue until 10 Nov, 2024, or until the posts are filled, whichever is earlier. - -</t>
   </si>
   <si>
@@ -248,6 +282,9 @@
     <t xml:space="preserve">Research FieldPhysicsEducation LevelMaster Degree or equivalent LanguagesENGLISHLevelGood Research FieldPhysics » OtherYears of Research Experience1 - 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Technology and Research</t>
+  </si>
+  <si>
     <t xml:space="preserve">Postdoc (f/m/d) Thermodynamic properties of quantum materials at high magnetic fields / Completed PhD in the field of experimental physics with research content in solid state physics / Self-standing experiment-based research on new … Area of research:Scientific / postdoctoral postsStarting date:01.10.2024Job description:Postdoc (f/m/d) Thermodynamic properties of quantum materials at high magnetic fields With cutting-edge research in the fields of ENERGY, HEALTH and MATTER, around 1,500 employees from more than 70 nations at Helmholtz-Zentrum Dresden-Rossendorf (HZDR) are committed to mastering the great challenges facing society today.The Dresden High Magnetic Field Laboratory (HLD) conducts cutting-edge materials research at high magnetic fields and serves as an internationally active user facility in close cooperation with its partner institutes of the jointly founded European Magnetic Field Laboratory (EMFL).The Dresden High Magnetic Field Laboratory is looking for a Postdoc (f/m/d) Thermodynamic properties of quantum materials at high magnetic fields. Your tasks # Self-standing experiment-based research on new quantum spin systems and superconductors using the metrological equipment available at the HLD, such as high-field magnets, cryo and high-resolution electronic measuring devices# Support of the measurement operation of the HLD for internal and external users as local contact# Supervision of students and internsYour profile # Completed PhD in the field of experimental physics with research content in solid state physics# Postdoctoral experience in self-standing research# Experience in high-field and low-temperature experiments# Experience in independent, visible publication of research results# Written and spoken English, knowledge of German is an advantage# Experience with common software applications in the office area, for data acquisition, evaluation and publicationOur offer # A vibrant research community in an open, diverse and international work environment# Scientific excellence and extensive professional networking opportunities# Salary and social benefits in accordance with the collective agreement for the public sector (TVöD-Bund) including 30 days of paid holiday leave, company pension scheme (VBL)# We support a good work-life balance with the possibility of part-time employment, mobile working and flexible working hours# Numerous company health management offerings# Employee discounts with well-known providers via the platform Corporate Benefits# An employer subsidy for the "Deutschland-Ticket Jobticket"We look forward to receiving your application documents (including cover letter, CV, diplomas/transcripts, etc.), which you can submit via our online-application-system. This research center is part of the Helmholtz Association of German Research Centers. With more than 42,000 employees and an annual budget of over € 5 billion, the Helmholtz Association is Germany's largest scientific organisation. - Website for additional job detailshttps://www.hzdr.de/job1918e</t>
   </si>
   <si>
@@ -353,6 +390,9 @@
     <t xml:space="preserve">Research FieldEngineering » Civil engineeringEducation LevelMaster Degree or equivalent Skills/QualificationsFull announcement also available at https://sigarra.up.pt/feup/pt/noticias_geral.ver_noticia?p_nr=166472 Specific RequirementsFull announcement also available at https://sigarra.up.pt/feup/pt/noticias_geral.ver_noticia?p_nr=166472</t>
   </si>
   <si>
+    <t xml:space="preserve">Rail</t>
+  </si>
+  <si>
     <t xml:space="preserve">PhD position in theoretical nanophysics A 4-year PhD scholarship is available at the Faculty of Physics of Adam Mickiewicz University in Poznań, Poland, in the group of Prof. Dr. Ireneusz Weymann (https://orcid.org/0000-0003-4193-6019) within the project "Critical phenomena and transport in correlated hybrid nanostructures", financed by the National Science Center in Poland.The aim of the project is to search for signatures of dynamical quantum criticality, shed new light and provide accurate predictions for the dynamical and transport behavior of correlated hybrid nanostructures, involving, among others, superconducting reservoirs interacting with quantum impurities, such as adatoms, quantum dots or molecules. This will enable the extension of the concept of dynamical phase transitions, which so far have been mainly studied in the case of global parameter changes, to mesoscopic systems, where local quenches can be performed in a fully controllable fashion. Furthermore, it will pave the way towards controllable investigation of time-dependent phenomena in nanoscale systems and obtain predictions for models that are relevant in a broader context of condensed matter physics. In particular, the systems planned to be studied within this project in the context of (time-dependent) transport and dynamical phase transitions involve among others large-spin molecules or multi-level quantum dots interacting with superconducting reservoirs as well as hybrid artificial molecules or multiple quantum dot systems, which enable the realization of the Yu-Shiba-Rusinov molecules, dimers or trimers. The considerations will be based upon very accurate numerical methods, such as time-dependent numerical renormalization group method, which will be appropriately adapted and extended to the case of studied systems and problems, such as multiple quench dynamics or calculations of various correlation functions in the time domain. The assumed methodology and numerical tools allow for obtaining high-quality quantitative results with all the correlations and interactions taken into account in an essentially exact manner. Thus, the planned investigations and calculations will provide reliable results for the time-dependent and transport phenomena that will be of relevance to both theoretical and experimental works. Research FieldPhysics » Solid state physicsEducation LevelMaster Degree or equivalent Skills/Qualifications• Master's degree in physics, • good knowledge of English sufficient to understand scientific texts, • high motivation to conduct scientific research in theoretical physics, • independence, good organization of work, ability to work in a team. LanguagesENGLISHLevelGood BenefitsPoznań, being one of the largest and oldest Polish cities, is the capital of the historic region of the Greater Poland. The city is also the birthplace of the Polish state, where the first Polish bishopric was established in 968 AD and the first Polish kings had a seat. It is an important industrial, trade and cultural centre, offering a diverse range of attractions and experiences that cater to a wide variety of interests. Poznań is also a vibrant academic place with around 100 000 students and several universities.Adam Mickiewicz University in Poznań is one of the leading academic institutions in Poland, comprising 21 faculties covering a wide range of academic disciplines. The Doctoral School of Exact Sciences of Adam Mickiewicz University offers opportunities to study and conduct competitive scientific research in the international environment. The University constantly updates and expands its research programmes and educational content, with particular emphasis on their interdisciplinary character.The Faculty of Physics is located in the modern Morasko Campus, located north of Poznań in a green area, which is well-connected with the city center. Selection processInterested candidates need to proceed through the recruitment system of Doctoral School of Exact Sciences of the Adam Mickiewicz University.The details about recruitment process are available here:https://usosirk.amu.edu.pl/en-gb/offer/SD-2024/programme/SD-NFiz/?from=…Recruitment timetable:submission of documents: from 15 to 19 July, 2024admission process: from 2 to 6 September, 2024announcement of the list of candidates qualified for admission: 11 September, 2024The successful candidate will obtain a scholarship in the amount of PLN 3466,90 gross for the first two years of studies (before the mid-term evaluation) and PLN 5340,90 gross for two years following mid-term evaluation (maximum 4 years). In addition, the candidate will be able to obtain additional salary from the grant, up to PLN 5000 gross per month, depending on the outcome.Before applying through the Doctoral School recruitment system, interested candidates are asked to contact Prof. Ireneusz Weymann (weymann@amu.edu.pl), sending the following documents: • a cover letter explaining why the applicant is applying for the position offered, • CV with scientific achievements (list of publications, participation in conferences, grants, etc.), • a copy of the master's diploma with transcript. Additional commentsFor more information about the position please contact prof. Ireneusz Weymann: weymann@amu.edu.pl, https://isik.amu.edu.pl/team/prof-ireneusz-weymann/, https://orcid.org/0000-0003-4193-6019</t>
   </si>
   <si>
@@ -384,6 +424,9 @@
   </si>
   <si>
     <t xml:space="preserve">MSCA POSTDOCTORAL FELLOWSHIPS AT VU FACULTY OF LAW, DEPARTMENT OF PUBLIC LAW, CENTRE OF UKRAINIAN LAW (sovereignty, jurisdiction, maritime security, war in Ukraine) University (VU) invites motivated researchers with a strong track record to prepare joint applications for 2024 Marie Skłodowska-Curie Actions Postdoctoral Fellowships (MSCA PF) call with a deadline on September 11, 2024. MSCA PF are among the flagship, most prestigious research fellowships in Europe, with the objective of supporting researchers’ careers, enhancing their creative and innovative potential, and fostering excellence in research.European Postdoctoral Fellowships are open to researchers of any nationality who wish to engage in R&amp;I projects by either coming to Europe from any country in the world or moving within Europe (12-24 months).Global Postdoctoral Fellowships are open to European nationals or long-term residents who wish to engage in R&amp;I projects with organisations outside EU Member States and Horizon Europe Associated Countries (12-24 months outgoing phase in a non-associated Third Country &amp; 12 months mandatory return phase to a host organisation in Europe).Extra funding opportunity! If you apply for the European Postdoctoral Fellowship with the host institution located in a widening country (Lithuania), and in case your proposal is not funded under the MSCA PF call due to a lack of budget, it will be automatically resubmitted to ERA Fellowships call and will have one more opportunity to get funding.HOST INSTITUTION AND RESEARCH GROUPVU is one of the oldest higher education institutions in Eastern and Central Europe. It tops the ranking as the number one university in Lithuania and leads the country in education, a broad spectrum of fundamental and applied research, training and retraining programs, and consultancy services and provides research and development services to a wide range of businesses. VU offers dynamic research and training environment and is well integrated into a collaborative network of international universities.VU Faculty of Law offers access to research resources at the Library, a modern Scholarly Information and Communication Centre (including separate rooms for work available to order). The Faculty assists in arranging infrastructure according to the conditions of a particular research visit or other ground of a foreign researcher's arrival and involvement.Famous professors and highly experienced practitioners working at the Faculty of Law (including the Department of Public Law) offer consultations in the areas of their expertise and support in establishing contacts with other institutions and stakeholders. The Faculty participates in various international networks, actively collaborates with numerous local and international partner institutions, which provide additional possibilities.Center of Ukrainian Law at the Faculty of Law brings together scientists and researchers, lecturers and legal practitioners from Ukraine and has been involved in teaching, research, conferences and similar events.SUPERVISORDr. Indrė Isokaitė-Valužė is an Associate Professor at the Faculty of Law and an Adviser to the Dean for International Development. She is a member of the Senate of Vilnius University and the Council of the Faculty of Law, also the Head of the Ukrainian Law Center of the Faculty of Law (from the end of 2023).Dr. Isokaitė-Valužė conducts teaching and research at VU, mainly the Faculty of Law, for over 13 years. Her main fields of teaching, academic interest and research are the Law of the Sea, International Law and Human Rights (freedom of expression, hate crime), also Law of Treaties, Refugee Law.During the last years her activities have also been much related with the issues of the Russia's war in Ukraine: teaching Ukrainian students (including in Ukraine, Lviv), organizing and participating in numerous conferences, panel discussions, public lectures, providing expert comments to mass media, publishing comments and research articles, at times contributing to working groups, etc.PREFERRED EXPERIENCE AND PERSONAL SKILLSBackground and research experience in the field of the Law of the Sea and/or International Law;Diligence and motivation, creativity and comprehensive approach (combining few fields, e.g. maritime law and international peace and security, treaty law and membership in international organizations, etc.).POSSIBLE RESEARCH TOPICSShifting interplay between a State's sovereignty and jurisdiction in international law: [focusing on a chosen area/issue, e.g. maritime domain, or State responsibility, statehood and recognition, court jurisdiction, international crimes, etc.]Critical need of a development and recovery of International Law facing Russia's war in Ukraine: [focusing on a chosen area/issue, e.g. State responsibility, treaty law, international organisations, etc.]ELIGIBLE APPLICANTSSupported fellows must be in possession of PhD at the call deadline (September 11, 2024).Have up to 8 years full-time equivalent experience in research from the date of award of the doctoral degree at the call deadline.Fellows must not have resided or carried out their main activity (work, studies, etc.) in the country of the beneficiary (for European Postdoctoral Fellowships), or the host organisation for the outgoing phase (for Global Postdoctoral Fellowships) for more than 12 months in the 36 months before the call deadlineDetailed information on the eligibility can be found on p. 91-94 of the MSCA Work Programme 2023-2024.HOW TO APPLY?Contact the supervisor Dr. Indrė Isokaitė-Valužė (indre.isokaite@tf.vu.lt) directly to express your interest in making a joint application based on your research interests. Do not forget to provide the following documents (cc to research@cr.vu.lt): - curriculum vitae - list of publications - proposal summaryRequest a letter from your supervisor endorsing you as a candidate, and send it to the Research Projects Office (research@cr.vu.lt). The candidates who wish to participate in VU MSCA PF Webinar are kindly requested to submit their endorsement letters by May 31, 2024.After receiving your supervisor’s endorsement, you can start preparing your MSCA PF project proposal. Please note that in order to prepare and submit your application on time (by September 11, 2024), you can seek support from VU Research Projects Office (research@cr.vu.lt).For more information follow the link. - -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban Development and Cultural Heritage</t>
   </si>
   <si>
     <t xml:space="preserve">PhD Student (f/m) for X-ray fluorescence tomography in the Algo. and Sci. Data Analylisis group. The European Synchrotron, the ESRF, is an international research centre based in Grenoble, France.Through its innovative engineering, pioneering scientific vision and a strong commitment from its 700 staff members, the ESRF is recognised as one of the top research facilities worldwide. Its particle accelerator produces intense X-ray beams that are used by thousands of scientists each year for experiments in diverse fields such as biology, medicine, environmental sciences, cultural heritage, materials science, and physics.Supported by 21 countries, the ESRF is an equal opportunity employer and encourages diversity. Thesis subject: Hybrid physics- and data-driven methods for X-ray fluorescence computed tomography (XRFCT)Scientific context and motivationX-ray fluorescence CT (XRFCT) is based on the analysis of the fluorescence signal of a sample excited by a thin X-ray pencil beam. It has several applications in the fields of material science, earth and environmental science and biomedicine. For example, it is used to track specific elements in biological tissues (e.g.prostate) orin combination with heavynano-particles which serve as a fluorescence probe. In earth sciences, XRFCT has been used to determine elemental composition of meteorites fragments.In XRFCT, the sample is excited with a monochromatic pencil beam (see Figure 1). Interactions of the imping- ing beam with the sample’s atoms produce fluorescence photons, whose energy is characteristic of the chemical element. A fluorescence detector collects all fluorescence photons with high energy resolution, for many sample positions and orientations. The collected spectra are then fitted to elemental data and finally passed on to a tomographic reconstruction algorithm to produce 3D spatial elemental maps.Unlike absorption tomography, the attenuation along the impinging and the emitted X-rays must be accounted for in the reconstruction algorithm. Early theoretical works introduced analytic and possibly exact inversion formulas, assuming a complete sampling of the projection space (i.e. full angular coverage, non-truncated projections). In many cases though, these conditions cannot be met and iterative methods like MLEM or SART become solutions of choice.Among the technical challenges that prevent XRFCT to becoming a routine 3D technique, one can cite:Non complete angular coverage of the acquisition: due to mechanical / technical constraints, angular coverage of the sample cannot exceed 120 degrees approximately.Alignment: During the several-hour-long acquisition, the sample may drift. The image quality depends crucially on the accurate identification of these drifts.Sample radiation damage: due to the very small size of the sample, the radiation dose may induce sample deformation, which makes the whole dataset inconsistent.Scientific goals and technical approachDerive practical consistency conditions for XRFCT.Data Consistency conditions (DCC) are mathematical relations that are satisfied by a set of data if it is consistent with their physics model. In some cases, self-absorption of the fluorescence signal can be neglected, and Helgason-Ludwig[1], conditions can be efficient. But in other cases, self-absorption is too significant and must be accounted for. No DCC exist for the fluorescence forward model. Finding such DCC may allow to better guide the estimation of the alignment parameters. The project will benefit from the long-time expertise in the field of DCC developed by the supervisors[2].[1] Ludwig D., Comm. on Pure and Applied Mathematics, 1966.[2] Lesaint et al., IEEE TRPMS, 2017.Design hybrid data/physics driven alignment methods.To further push the accuracy of the critical alignment procedure, we plan to explore methods that combine the universal expressivity of deep neural networks with physics-informed techniques (e.g. DCC-based techniques). Recent research has proved that convolutional networks can be efficient in geometric calibration of transmission CT data[3]. More recently, gradient-based geometric calibration methods combined with deep-learning techniques have investigated these hybrid-methods for classical CT[4].[3]Xiao and Yan, Applied Optics, 2021.[4]Schoonhoven et al., Optics Express, 2024.Generalize hybrid methods to the XRFCT reconstruction problem.Finally, the hybrid methods will be extended to the full 3D XRFCT reconstruction problem. It has been shown that learned inverse problem methods are all the more effective as the data are very noisy. The severe acquisition conditions (under-sampling, missing wedge, low signal) found in XRFCT make these methods good candidates: we can expect from these methods a significant improvement of the image quality compared to state-of-the-art regularization-based variational methods. For more information, please contact Jérome Lesaint (jerome.lesaint@esrf.fr) or Simon Rit (simon.rit@creatis.insa-lyon.fr). Research FieldOtherEducation LevelMaster Degree or equivalent Skills/QualificationsMaster degree (or equivalent diploma that entitles the candidate to enroll for a PhD) in applied maths or computer sciences. Master in Physics with strong interest in applied maths/computer sciences is also possible.Proficiency in signal and image processing.Knowledge of X-ray physics would be a plus.Autonomy, creativity, ability to work within an interdisciplinary team (physics, computer sciences, mathematics, instrumentation).Programming language: Python mainly (C++/CUDA optionally).Excellent written and oral English (working language at ESRF). Specific RequirementsThe salary will be calculated on the basis of relevant qualifications and professional experience.Do you recognize yourself in this description? Apply now for your next professional adventure!What we offer:Join an innovative international research institute, with a workforce from 38 different countriesCollaborate with global experts to advance science and address societal challengesCome and live in a vibrant city, in the heart of the Alps, and Europe's Green Capital 2022Enjoy a workplace designed to support your quality of lifeBenefit from our competitive compensation and allowances package, including financial support for your relocation to GrenobleFor further information on employment terms and conditions, please refer to https://www.esrf.fr/home/Jobs/what-we-offer.htmlThe ESRF is an equal opportunity employer and encourages applications from disabled persons. -</t>
@@ -558,6 +601,9 @@
    In Nationale-Nederlanden we are committed with diversity. We are proud to be an inclusive organization and we offer equal opportunities, regardless of race, cultural background, gender, gender identity, religion, national origin, age, disability, marital status, and sexual orientation. One of our core values is taking care of our employees so they can give their best within a respectful environment.</t>
   </si>
   <si>
+    <t xml:space="preserve">Insurance and Finance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finance Digitalization Specialist Snapshot of your day:
   Start your day with a team meeting to discuss digitalization topics, share insights, and address challenges. Afterwards, follow-up on developing and handling digitalization use cases by applying automation tools like Alteryx, Jedox, and Power BI.
   In the afternoon, dedicate your time to brainstorm innovative ideas to upskill the finance community by introducing new technologies such as GenAI and Copilot.
@@ -683,6 +729,9 @@
    Target oriented
    Willing to learn and attention to details
   At Thales we provide CAREERS and not only jobs. With Thales employing 80,000 employees in 68 countries our mobility policy enables thousands of employees each year to develop their careers at home and abroad, in their existing areas of expertise or by branching out into new fields. Together we believe that embracing flexibility is a smarter way of working. Great journeys start here, apply now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviation and drones</t>
   </si>
   <si>
     <t xml:space="preserve">Patient Access Officer - Registration Our vision is to be the best place for healthcare anywhere and the best place to work in healthcare.
@@ -2045,6 +2094,9 @@
     Come take off with us!</t>
   </si>
   <si>
+    <t xml:space="preserve">Finance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Java Full Stack Developer with French Location: Bucharest, Romania
   The people we all rely on to make the world go round – they rely on Thales. Thales rely on its employees to invent the future: right here, right now.
   Present in Romania for over 40 years, Thales is expanding its presence in the country by growing its Digital capabilities and by developing a Group Engineering Competence Centre (ECC). Operating from Bucharest, Thales delivers solutions in a number of core businesses, from ground transportation, space and defence, to security and aeronautics. Several professional opportunities have arisen. If you are looking for the solidity of a Global Group that is at the forefront of innovation, but with the agility of a human structure that tailors to the personal development of its employees and allows opportunities for evolution in an international environment, then this is the place for you!
@@ -2256,6 +2308,9 @@
    Cycle to work scheme.
    Social events and more!
    So, if you are currently looking to get stuck into an exciting new opportunity where no two days are the same, we would love to hear from you. Click apply now! We can’t wait to meet you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undefined </t>
   </si>
   <si>
     <t xml:space="preserve">fforest farm roles At fforest we specialise in creating interesting and comfortable spaces for guests to escape to and stay in nature.
@@ -3708,6 +3763,9 @@
   A dynamic and innovative work environment. 
   The chance to work with cutting-edge technology and make a significant impact in the industry. 
   Additional training and personal development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maritime and Inland Waterways</t>
   </si>
   <si>
     <t xml:space="preserve">Product Stewardship Business Partner Job Title:
@@ -3817,6 +3875,9 @@
  Diversity is important to us: We are a mixed group of people from many different backgrounds, each with our unique experiences. We respect and admire our differences and believe everyone can make a contribution to Swytch. Our recruitment process is reviewed regularly to maintain its fair and unbiased approach, and our management team has undergone unconscious bias training. We believe our success is based on the innovation of our team, the differing opinions, and the ability to respect each other enough to brainstorm our way to new ideas.</t>
   </si>
   <si>
+    <t xml:space="preserve">Road and Automotive</t>
+  </si>
+  <si>
     <t xml:space="preserve">ES-2414 COMMUNITY MANAGER Description 
  Permanent | Fulltime/40h | Belvaux
   Your work environment
@@ -4115,10 +4176,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Data Security Engineering Expert Client Background            The Düsseldorf Research Center is responsible for advanced technical research, architecture evolution design and strategic technical planning with the vision of a world-leading research center for innovative technologies and platforms enabling the development of world-class products and solutions.            Responsibilities      	      Identify key security research and development topics in the field of applied security, based on technologies trends analysis, standard analysis, and requirements from product lines.      	      Research and develop important technologies in security and cryptography including cloud security, mobile security, big data security, processing over encrypted data</t>
+      <t xml:space="preserve">Data Security Engineering Expert Client Background            The Düsseldorf Research Center is responsible for advanced technical research, architecture evolution design and strategic technical planning with the vision of a world-leading research center for innovative technologies and platforms enabling the development of world-class products and solutions.            Responsibilities                    Identify key security research and development topics in the field of applied security, based on technologies trends analysis, standard analysis, and requirements from product lines.                    Research and develop important technologies in security and cryptography including cloud security, mobile security, big data security, processing over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">crypted data</t>
     </r>
     <r>
       <rPr>
@@ -4134,10 +4215,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">post-quantum cryptography and deliver technical reports, proof of concept, prototype, common build blocks, methodologies or implementation guidelines.      	      Support integration of security components and industrial products.            Requirements      	      PhD Degree in Computer Science or any other related field of study      	      Experience in software R&amp;D, security research or security product development      	      Experience and knowledge in cloud/IoT/network function, as well as in software design      	      Excellent communication skills, teamwork spirit, initiative and autonomous working are required      	      Proficiency in English and interest to work in a truly diverse cultural environment.      	      If you are an energetic and ambitious person with a passion for automotive engineering, we encourage you to apply for this exciting opportunity.       	      We offer a competitive salary, excellent benefits, and the opportunity to work with a dynamic and innovative team.        If you are an energetic and ambitious person with a passion for automotive engineering, we encourage you to apply for this exciting opportunity. We offer a competitive salary, excellent benefits, and the opportunity to work with a dynamic and innovative team.
+      <t xml:space="preserve">post-quantum cryptography and deliver technical reports, proof of concept, prototype, common build blocks, methodologies or implementation guidelines.                    Support integration of security components and industrial products.            Requirements                    PhD Degree in Computer Science or any other related field of study                    Experience in software R&amp;D, security research or security product development                    Experience and knowledge in cloud/IoT/network function, as well as in software design                    Excellent communication skills, teamwork spirit, initiative and autonomous working are required                    Proficiency in English and interest to work in a truly diverse cultural environment.                    If you are an energetic and ambitious person with a passion for automotive engineering, we encourage you to apply for this exciting opportunity.                     We offer a competitive salary, excellent benefits, and the opportunity to work with a dynamic and innovative team.        If you are an energetic and ambitious person with a passion for automotive engineering, we encourage you to apply for this exciting opportunity. We offer a competitive salary, excellent benefits, and the opportunity to work with a dynamic and innovative team.
             Show more
             Show less Information Technology Computer and Network Security</t>
     </r>
@@ -4217,12 +4298,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -4243,7 +4324,22 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -4252,6 +4348,13 @@
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="docs-Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4303,13 +4406,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4325,9 +4444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -4335,10 +4454,10 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4f81bd"/>
@@ -4362,19 +4481,19 @@
         <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000ff"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -4386,54 +4505,63 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
+                <a:lumMod val="110000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
+                <a:lumMod val="105000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:lumMod val="105000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
           <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:lumMod val="99000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
           <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -4451,46 +4579,34 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
+                <a:tint val="93000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
+                <a:tint val="98000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:shade val="63000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
           <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -4504,13 +4620,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E64" activeCellId="0" sqref="E64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D152" activeCellId="0" sqref="D152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.71"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4533,2455 +4658,4329 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D26" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="E47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F65" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="456" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="D121" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="D131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="D146" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="D147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="F148" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="F149" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D165" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="D170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="D174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="1042.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="1008.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="695.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="2364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="740.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="605.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="1412.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="1726.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="997.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="773.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="807.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="1278.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="1468.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="773.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="773.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="1267.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="751.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="1591.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="2711.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="1211.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="2543.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="986.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="740.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="1087.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="1759.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="908.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="964.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D165" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C176" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="F175" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Test_Results.xlsx
+++ b/Test_Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="248">
   <si>
     <t xml:space="preserve">Descriptions</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Segment</t>
   </si>
   <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANNOUNCEMENT FOR THE AWARD OF MASTER'S DEGREE 28/ECUM/CFUM/2024 – FerrOx4Power  Research Fellowship - 1 vacancy A call for applications is now open for the attribution of 1 (one) grant of Master's Degree, within the scope of the R&amp;D project Ferroelectric (pseudo)-binary oxides nanofilms for flexible and ultrafast pulsed power electronics, 2022.01740.PTDC, financed by national funds through Foundation for Science and Technology (FCT, IP), through the Operational Program OE, under the following conditions: Scientific Area: Physics, Physics Engineering, Materials Engineering Recipient category: Students enrolled in a Degree courses. Requirement for granting the fellowship: The applicants may apply without prior registration in the course for which the fellowship is open. The requirement to enroll in a degree course will be verified on the date of contracting the fellowship; Only fellowships whose selected applicants present a valid proof of enrollment in a degree course will be contracted, according to the type of the fellowship, issued by the academic services of the Higher Education Institution, indicating, respectively, the academic year or its duration (star and term). Candidates profile: • Mandatory requirements: Graduates in Physics Engineering or Physics. • Requirements under contract: a) enrolment in a master's/Integrated master's degree in the area requested in the public notice (proof of academic qualifications completed by the deadline for applications, including those resulting from academic degree recognition processes); • Preferred factors: experience in the production of thin films by laser ablation or ion-beam sputtering, as well as in their characterization by advanced techniques. Applicants eligibility: Applicants must comply with the eligibility conditions laid down in article 9 of the Research Grants Regulation of the Portuguese Foundation for Science and Technology (2019). Workplan and objectives to be achieved: The work plan involves the preparation by laser ablation or ion-beam sputtering of multilayered thin films based on ferroelectric materials, as well as their structural, chemical, ferroelectric and electrical characterization, among others. Taking advantage of the combination of different materials, the epitaxial deformation at the interfaces between them and their mechanical interaction with selected substrates, the aim is to obtain multilayered thin films with optimized ferroelectric and energy storage properties. Applicable legislation and regulations: Research Fellowship Holder Statutes, approved by Law no. 40/2004 of August 18, in its current version published by Decree-Law no. 123/2019 of august 28; Regulation of Scientific Research Fellowships of the University of Minho (RBIC), published in “Diário da República”, 2nd serie, no. 119, through dispatch no. 6524/2020 of 22-06-2020, ratified by ratification declaration no. 447/2021 of 22-06-2021 and Regulation of Research Studentships and Fellowships (RBI) of the Foundation for Science and Technology, I.P. - in force. Host/Contracting institution and scientific supervision: The workplan will be carried out in the Physics Center of Minho and Porto Universities, in Gualtar, under the scientific guidance of Dr. José Pedro Basto da Silva and Professor Luís Silvino Alves Marques. Fellowship duration: The grant will take place for a period of 3 months, with a provisional starting date on the october of 2024. The fellowship grant is non-renewable. Amount of the research grant: The value stipend (Monthly Maintenance Allowance) is 990,98€ per month, in accordance with the stipends values published by the Foundation for Science and Technology (FCT I.P.) in the country (Annex I – Monthly Stipends Values for the maintenance allowances of the FCT Regulation for Research Studentships and Fellowships) and Annex II of the Regulation of Scientific Research Fellowships of the University of Minho (RBIC), published in “Diário da República”, 2nd serie, no. 119, through dispatch no. 6524/2020 of 22-06-2020, ratified by ratification declaration no. 447/2021 of 22-06-2021, according to the applicable regulation. Payment is made on the 23st of each month, through bank transfer to the Bank Identification Number of the fellow identified in the contractualization process. Other benefits: Reimbursement of Voluntary Social Security (Social Security contributions), corresponding to the 1st level of discounts (for research grants with a total duration 6 months or higher) and personal accident insurance. Exclusivity regime: The grantee will perform the activities under exclusivity, as foreseen in article 5º of the Research Fellow Statutes and applicable regulations. Selection panel: President: José Pedro Basto da Silva, Assistant Researcher, Centre of Physics, School of Sciences of the University of Minho; Effective Member: Mário António Caixeiro Castro Pereira, Assistant Professor, Department of Physics, School of Sciences of the University of Minho; Luís Silvino Alves Marques, Assistant Professor, Department of Physics, School of Sciences of the Minho University; Substitute member: Maria de Jesus de Matos Gomes, Full Professor, Department of Physics, School of Sciences of the Minho University; Veniero Lenzi, Doctoral Researcher, Department of Chemistry from the University of Aveiro. The first effective member will substitute the President of the selection panel in case of impediment, being nominate the first substitute member in the place of the first effective member. Criteria and procedures for applications assessment and selection: The applications assessment will focus on the candidate's Merit, following evaluation criteria, valued on a scale of 1 to 5 values: Applicant Merit - AM (100%): A.1: Academic path (considering the classifications of academic degrees), with a weighting of 50%; A.2: Personal curriculum (considering professional and scientific background), with a weighting of 40%; A.3: Motivation letter, with a weighting of 10%. The final classification of the applicant’s merit with the achieved through the following formula: MC=(A1×0,5) + (A2×0,4) + (A3×0,1) The academic degrees and diplomas documents, or their respective recognition when awarded by foreign higher education institutions are not mandatory in the application phase, being replaced by a declaration of honor of the candidate with the contents of academic results. The documents of academic qualification or respective recognition will be required in the contracting phase and must attest facts that occurred on a date prior to the application. In situations of divergence between the information contained in the declaration and the documentation submitted for contracting the grant, only the information contained in the latter will be consider. If the documents proving the ownership of the academic degree and diploma, or the respective recognition under the terms of Decree-Law No. 66/2018, of August 16, do not correspond to the classifications awarded in the evaluation of the academic path, which can change the candidate's ranking, the fellowship won’t be contracted. Disclosure of results: The provisional results of applications, based in the selection panel minutes, will be send to the applicants by email until 90 working days from the applications deadline. If case of unfavourable results, the candidates have a period of 10 working days to comment, if desired, in a prior hearing to interested parties, pursuant to articles 121 and 122 of the Code of Administrative Procedure (DL no. 4 / 2015 of January 7th). Complaint and appeal procedures: The final results of the evaluation will be published through an ordered list (alphabetically), posted in a visible and public place of the host unit, as well as by email to all applicants, enclosing for that purpose, the minutes of the jury deliberations. The selected candidate must inform its willingness to accept the grant, in writing. In case of rejection, the fellowship will be awarded to the next candidate in the ordered list of applicants. The final decision can be contested within 15 working days, by sending to the President of the jury the corresponding claim. Interested parties may also submit an optional hierarchical appeal, addressed to the Pro-Rector for Research and Projects, Professor Sandra Cristina Almeida Paiva. Application deadline and submission: The call for applications is open for 10 working days from the date of publication of the announcement on the Euraxess portal. Applications must be formalized by sending an application letter with the following documents: curriculum vitae; qualifications certificate or declaration of the applicant; motivation letter; statement proving that meets the conditions for the grant typology, according to the application requirements; other documents important to the evaluation process). Applications must be sent by email to bolsas@ecum.uminho.pt, indicating the reference of the call for applications in Subject: 28/ECUM/CFUM/2024-FerrOx4Power. Applications submitted by other means will not be accepted. Fellowship contractualization: The fellowship will be attributed by signing a fellowship contract between the University of Minho and the fellow, accordingly with the contract minute (annex IV of the Regulation of Research Fellowships of the University of Minho (RBIC), published in Diário da República, 2nd Série, no. 119, through dispatch no. 6524/2020 of 22-06-2020, ratified by ratification declaration no. 447/2021 of 22-06-2021, as indicated in 2.4 of the FCT document: “Rules for Granting and Management of Grants within the scope of R&amp;D projects, including infrastructure projects, the multi-annual financing program for R&amp;D units and other FCT financing instruments (Version 2021)”. The contract may only be concluded after all the documentation required is collected, which must take place within a maximum period of 6 months [including evidences of the academic degrees or diplomas and enrolment in degree courses or non-conferring courses, depending on the type of scholarship]. Once all the documentation has been received, the contracting entity has a period of 60 working days to conclude the scholarship contract. Once received, the fellow must return the contract duly signed within 15 working days. The activities under the fellowship contract can only began after proper authorization by the contracting entity. Term and cancellation of fellowship contracts: Without prejudice to the other causes provided the fellowship regulations (FCT and UMinho) and in the Statute of the Research Fellow, the fellowship ends with the completion of the work plan, as well as with the expiration date for which it was granted or renewed. At the end of the fellowship, the grantee is obliged to present a Final Report of the work carried out, in accordance with the objectives and evaluation criteria defined with the scientific advisor, within 30 days after the end of the scholarship. The final report must be prepared in accordance with Annex I of the Scientific Research Fellowships Regulation of the University of Minho (RBIC), published in Diário da República, 2nd Série, no. 119, through dispatch no. 6524/2020 of 22-06-2020, ratified by ratification declaration no. 447/2021 of 22-06-2021. Research FieldPhysicsEducation LevelMaster Degree or equivalent Skills/QualificationsPlease you can find the information in the Offer Description section Specific RequirementsPlease you can find the information in the Offer Description section BenefitsPlease you can find the information in the Offer Description section Eligibility criteriaPlease you can find the information in the Offer Description section Selection processPlease you can find the information in the Offer Description section Website for additional job detailshttps://www.ecum.uminho.pt/pt/Investigacao/Paginas/Emprego-Cientifico.aspx</t>
   </si>
   <si>
@@ -67,46 +70,40 @@
     <t xml:space="preserve">Bachelor's Degree</t>
   </si>
   <si>
+    <t xml:space="preserve">Consumer Solutions, Tourism and Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-1599510 Post PHD - Synthesis and shaping of materials for optical applications This work is part of a national french research project (see 3D-MOC, https://anr.fr/Project-ANR-23-CE08-0021). Its goal is to prepare 3D multimaterials for fully integrated optical components. A glass substrate will be 3D-etched using Femtosecond Laser Irradiation combined with Chemical Etching prior to the elaboration of the samples. This will be conducted by a research team specialized in laser-matter interaction. The recruited person will be charged to prepare glasses to be inserted in the hollow structure for light guidance. The chemical solition deposition will be favored but not exclusive. Research FieldEngineering » Materials engineeringEducation LevelPhD or equivalent Research FieldChemistry » OtherEducation LevelPhD or equivalent Skills/QualificationsBibliographic research Liquid-based material synthesis Ceramic processing and characterization of inorganic materials Specific RequirementsSafety in a chemistry laboratory enviromnent Ability to work in a restricted area Ability to write publications LanguagesENGLISHLevelGood Research FieldEngineering » Materials engineeringYears of Research Experience4 - 10 Research FieldChemistry » OtherYears of Research Experience1 - 4 BenefitsNet monthly salary between 1825 and 2300 € based on former experience Eligibility criteriaAccording to French legislation, the applicant must have received a PhD degree no later than three years before the beginning of the contract Selection processCV, cover letter and copy of PhD degree to be sent by email mentioning reference of job offer at : drh-recrutement-recherche@unilim.fr Website for additional job detailshttps://www.unilim.fr/luniversite-de-limoges-recrute-un-post-doctorant-projet-3…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research FieldEngineering » Materials engineeringEducation LevelPhD or equivalent Research FieldChemistry » OtherEducation LevelPhD or equivalent Skills/QualificationsBibliographic research Liquid-based material synthesis Ceramic processing and characterization of inorganic materials Specific RequirementsSafety in a chemistry laboratory enviromnent Ability to work in a restricted area Ability to write publications LanguagesENGLISHLevelGood Research FieldEngineering » Materials engineeringYears of Research Experience4 - 10 Research FieldChemistry » OtherYears of Research Experience1 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhD or Doctorate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Université Claude Bernard Lyon 1- Hosting offer for a MSCA Post-doctoral fellowship candidate  in nanoscale engineering of materials OrganisationThe Université Claude Bernard Lyon 1 welcomes Marie Sklodowska Curie Postdoctoral Fellowships applications !With 62 laboratories and more than 7000 publications per year, and leading French university in terms of the number of patents filed in collaboration with industry, Lyon 1 contributes to scientific and innovation progress in numerous fields: health, mathematics, IT, physics, chemistry, earth and space sciences, life sciences, etc. Creator of emerging knowledge and new technologies, the University is consolidating its research excellence on a global and international level by developing inter- and multidisciplinary approaches targeting the major challenges facing today society. Host research lab/teamThe Institut des Sciences Analytiques (ISA, UMR5280) is a leading research lab in Europe in analytical sciences, with complementary expertise ranging from physical sciences and materials engineering to biochemistry and sensing. ISA teams have a unique expertise in developing innovative analytical tools for the characterization of complex systems from macro to nanoscales. The research activities are organized following three main thrusts: 1) multidimensional approaches to study complex systems, 2) surfaces and miniaturization for analytical research and technologies, 3) theoretical and experimental approaches for molecular interactions. ISA also hosts several startups and fosters collaborations with industrial partners. The Surface research teamThe team specializes in engineering physico-chemical properties of surfaces and analyzing surface properties at the micro- and nano-scales (spectra and functional imaging). The team hosts state-of-the-art microscopy and spectroscopy tools to support the work. Starting in 2024, the team is launching a new activity focusing on nanoscale engineering of materials and multifunctional nanoscale characterization using atomic force microscopy (AFM). Hosting Offer The Surfaces lab offers to host a MSCA Postdoctoral Fellowship candidate (typically a post-doc of less than 8 years research experience since PhD defence), submitting an application to the next MSCA-2024 - PF call for proposals (deadline 11th September 2024), interested to work on one of the following research topics:Development of new approaches in nanoscale infrared spectroscopyDevelopment of new AFM-based analytical tools involving mass spectroscopyExploration of the microscale and nanoscale properties of complex systems (polymers, catalysts, plants, bacteria, etc) under various stimuliThe fellowship could last for 12 to 36 months, depending on the type of Postdoctoral Fellowship. SupervisionThe successful Marie-Curie Post-doctoral fellow will be supervised by Dr. Laurene Tetard.Laurene Tetard is a CNRS Research Director. Her research interests include developing new tools for nanomanipulation and nanocharacterization of complex systems of relevance to sustainability, spanning a broad range of applications from life sciences to 2D materials for catalysis. Application processInterested candidates are invited to contact us exclusively by email at laurene.tetard@isa-lyon.fr.Make sure that you include the reference to this offer in the title of your email. Please attach a CV, a motivation letter, your MSc marks, as well as a 1 page research proposal. Professional grant application support:Candidates will receive the support of the supervisors, as well as online training from a professional grant application company, and advices from successful applicants, to prepare and submit their application with the Institute of Science Analytiques UMR 5280 as a host laboratory, to the next MSCA-PF call for proposals. - -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate, Environment and Biodiversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhD student AI-driven innovation management Your functionYou will conduct academic research within the Innovation Management (IM) research group in close collaboration with the Business Informatics (BINF) research group, both at the Faculty of Business Economics of Hasselt University, to obtain a doctoral degree in business economics. Artificial intelligence (AI) is an exciting general purpose technology with profound implications for business. This vacancy deals with the research topic of AI-augmented innovation management, and more specifically the role of AI in innovation ecosystem orchestration. Innovation ecosystems refer to multi-organizational collaborations to develop and commercialize innovative solutions to problems. Such innovation ecosystems generally require orchestration by a keystone firm (“the orchestrator”) to ensure proper coordination and control of interrelated innovation activities. The central question of this PhD project is how new developments in AI can assist keystone firms in orchestrating larger innovation ecosystems, such that more demanding innovation problems can be effectively handled. As innovation ecosystems grow more complex, with a larger number of participating organizations and stronger interdependencies between these organizations, ensuring effective orchestration with adequate coordination and control gets increasingly difficult. This PhD project is aimed at (a) identifying how emerging AI technologies can support keystone firms with their ecosystem orchestration tasks, (b) examining organizational and strategic challenges for AI-augmented ecosystem orchestration and how these can be overcome, and (c) verifying how AI adoption affects the performance of innovation ecosystems in terms of the problem complexity they can address and the quality of their innovation outputs. The primary focus of this PhD project is to study strategic and organizational aspects in relation to AI-augmented innovation management, but a strong interest in learning more about AI technologies is also required. As such, in this project you will be able to complement your business skills with technical competencies, to develop a profile that is in high demand in the labor market within and beyond academia. We are looking for a highly motivated and talented individual to join our research team as a PhD candidate. You will publish the results of your work in academic journals, participate in international conferences and seminars, and build an international network. You will also have many opportunities for further professional development, especially through the offerings of the Doctoral School of Humanities and Social Sciences. A number of teaching tasks are also part of your assignment. This includes guiding work sessions, grading exams, and supervising master thesis students.Your teamNew developments in artificial intelligence (AI) have a profound impact on the business world and how companies organize themselves. Within this doctoral project, the aim is to investigate how AI can support innovation ecosystems in solving complex innovation problems. For this research project, there is a collaboration between the research groups Innovation Management (IM) and Business Informatics (BINF) at Hasselt University. The doctoral student will be formally appointed at the IM research group, but will receive guidance from both the IM group (promotor) and the BINF group (co-promotor). The IM research group is part of the Marketing &amp; Strategy (MARS) capacity group. The central theme of this research group is strategic innovation management, with a special focus on the disruptive forces of digitalization and sustainability and how these affect businesses. The research group strives for scientific research that is both academically outstanding and practically relevant. Research conducted at the IM research group is published in leading international scientific journals such as the Journal of Management, Journal of Management Studies, and Research Policy, as well as in practitioner magazines with a global reach such as Harvard Business Review, and MIT Sloan Management Review. Research FieldEngineeringEducation LevelMaster Degree or equivalent Skills/QualificationsYou have, or will have by October 2024, a master’s degree in Management, Business Administration, (Business) Economics, Business Engineering, Business and Information Systems Engineering (or equivalent) Final-year students are (likewise) encouraged to apply.You have a strong interest in scientific research in general and in the PhD topic specifically, which combines the themes of business and technology.You demonstrate the necessary critical attitude as a researcher.You have excellent project management skills.You have strong problem-solving skills.You work accurately with a focus on high-quality end results.You are proactive and show initiative.You can work systematically and in a self-directed manner.You can work independently as well as in a team.You have good oral and written communication skills in English.Knowledge of Dutch is a plus. LanguagesENGLISHLevelBasic Research FieldEngineering -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research FieldEngineeringEducation LevelMaster Degree or equivalent Skills/QualificationsYou have, or will have by October 2024, a master’s degree in Management, Business Administration, (Business) Economics, Business Engineering, Business and Information Systems Engineering (or equivalent) Final-year students are (likewise) encouraged to apply.You have a strong interest in scientific research in general and in the PhD topic specifically, which combines the themes of business and technology.You demonstrate the necessary critical attitude as a researcher.You have excellent project management skills.You have strong problem-solving skills.You work accurately with a focus on high-quality end results.You are proactive and show initiative.You can work systematically and in a self-directed manner.You can work independently as well as in a team.You have good oral and written communication skills in English.Knowledge of Dutch is a plus. LanguagesENGLISHLevelBasic Research FieldEngineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business development manager Let’s shape the future - University of Antwerp The University of Antwerp is a dynamic, forward-thinking, European university. We offer an innovative academic education to more than 20000 students, conduct pioneering scientific research and play an important service-providing role in society. We are one of the largest, most international and most innovative employers in the region. With more than 6000 employees from 100 different countries, we are helping to build tomorrow's world every day. Through top scientific research, we push back boundaries and set a course for the future – a future that you can help to shape. University of Antwerp is recruiting a Business Development Manager for its Centre for the Evaluation of Vaccination (CEV) which is located at Vaccinopolis, Edegem, Belgium The CEV is a research centre of the University of Antwerp (UAntwerp), headed by Prof. Van Damme, having a long standing expertise on the assessment of new vaccines and is offering services in the field of clinical trials for vaccines. Besides ambulatory vaccine trials, it offers CHIM (Controlled Human Infectious Model) studies with the goal to accelerate the evaluation and development of vaccine candidates. The CEV is located at Vaccinopolis, a new state-of-the-art facility from UAntwerp. Vaccinopolis has a unique 30-bed capacity under biosafety level-3 (BSL-3) conditions which allows it to perform CHIM studies with pathogens such as SARS-CoV-2. Next to the human challenge capability, the centre offers a large BSL-2 and BSL-3 lab capacity as well as an ambulatory vaccine trial unit. For the above services, CEV is looking for a BUSINESS DEVELOPMENT MANAGER. Position You will be responsible for developing our vaccine clinical trial service business, with a focus on CHIM studies. You will manage existing customer accounts while also developing new business opportunities with biotech and pharma companies and/or Universities and Research Institutes in Europe and Rest of the World (RoW). The position is located in Antwerp, Belgium. In this function at least 25% travel will be required. Further tasks and responsibilities You will be part of the management team and be responsible for preparing and implementing a strategic business plan based on market need, industry insights and calls for proposals of funding agencies. Ensure that the income from clinical studies is in line with the business plan. Follow up requests for proposals (RFP) and prepare them with the Vaccinopolis team in a timely and professional manner. Develop and maintain long-term business relationships with partners and strategic suppliers/subcontractors. Call on existing and potential new partners and present them with Vaccinopolis services with focus on CHIM studies, while also highlighting the other services related to vaccine clinical trials. Identify pro-actively key stakeholders and networks to establish new opportunities worldwide. Recognize new opportunities and define corresponding improvements and extension of the clinical trial service offering based on the market needs. Work with the Vaccinopolis team members to evaluate and assess new projects in order to prepare budget proposals in a given timeframe. Work with the Vaccinopolis team members to ensure that the projects are well planned and executed on time, with the required quality according to the applicable regulations and within the foreseen budget. Ensure that customers are fully informed via written and/or verbal communication. Develop contracts together with the customers in close interaction with the legal department and be responsible for their monitoring and compliance. Support client visits to Vaccinopolis. Represent and promote Vaccinopolis at conferences, meetings and networking events. Ensure that the website, LinkedIn and other social media are up-to-date. Develop various promotional materials, such as pitches and presentations and ensure that these are regularly updated. Profile A medical degree and/or a PhD in life sciences, with experience in the area of vaccines and/or infectious diseases. Minimum 10 years of relevant experience in the pharmaceutical/biotech industry, with experience in clinical trials. Experience with CHIM studies would be an asset. Minimum 5 years of experience in business development in a pharma environment. Knowledge of GCP, GMP, and GCLP. Outstanding organisational and presentation skills. Excellent relationship builder with strong communication and interpersonal skills, able to gain buy-in both internal and external. Able to manage complex projects, multi-task and plan strategically. Ability for decision-making, problem solving and to have a foresight into potential issues is required. Skills with MS Word, Excel and PowerPoint is required. You are fluent in Dutch and English. Fluency in French is an asset. What we offer We offer a fulltime appointment for an unlimited period after a positive evaluation at the end of the first year. A part-time appointment is a possibility and can be discussed. Your gross monthly salary is calculated according to the pay scales in the Contract Research Staff category (Dutch: Bijzonder Academisch Personeel, BAP). Initial pay scale will be determined on experience. The planned start date is 1 January 2025 or as soon as possible after that date. Your office will be in Vaccinopolis at Campus Drie Eiken in Edegem in a dynamic and stimulating working environment. Frequent travel will be required and home work is acceptable. Find out more about working at the University of Antwerp here. Want to apply? You can apply for this vacancy through the UAntwerp’s online job application platform up to and including 30 September 2024 (by midnight Brussels time). Click on 'apply', complete the online application form and don’t forget to include the following document(s): (1) a motivation letter, (2) your CV. The selection committee will review all of the applications as soon as possible after the application deadline. As soon as a decision has been made, we will inform you about the next steps in the selection procedure. If you have any questions about the online application form, please check the frequently asked questions or send an email to jobs@uantwerpen.be. If you have any questions about the job itself, please contact: bart.vanmeerbergen@uantwerpen.be The University of Antwerp received the European Commission’s HR Excellence in Research Award for its HR policy. We are a sustainable, family-friendly organisation which invests in its employees’ growth. We encourage diversity and attach great importance to an inclusive working environment and equal opportunities, regardless of gender identity, disability, race, ethnicity, religion or belief, sexual orientation or age. We encourage people from diverse backgrounds and with diverse characteristics to apply. Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldMedical sciencesYears of Research ExperienceMore than 10 Research FieldPharmacological sciencesYears of Research ExperienceMore than 10 Research FieldTechnologyYears of Research ExperienceMore than 10 Website for additional job detailshttps://academicpositions.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldMedical sciencesYears of Research ExperienceMore than 10 Research FieldPharmacological sciencesYears of Research ExperienceMore than 10 Research FieldTechnologyYears of Research ExperienceMore than 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales and Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-1599510 Post PHD - Synthesis and shaping of materials for optical applications This work is part of a national french research project (see 3D-MOC, https://anr.fr/Project-ANR-23-CE08-0021). Its goal is to prepare 3D multimaterials for fully integrated optical components. A glass substrate will be 3D-etched using Femtosecond Laser Irradiation combined with Chemical Etching prior to the elaboration of the samples. This will be conducted by a research team specialized in laser-matter interaction. The recruited person will be charged to prepare glasses to be inserted in the hollow structure for light guidance. The chemical solition deposition will be favored but not exclusive. Research FieldEngineering » Materials engineeringEducation LevelPhD or equivalent Research FieldChemistry » OtherEducation LevelPhD or equivalent Skills/QualificationsBibliographic research Liquid-based material synthesis Ceramic processing and characterization of inorganic materials Specific RequirementsSafety in a chemistry laboratory enviromnent Ability to work in a restricted area Ability to write publications LanguagesENGLISHLevelGood Research FieldEngineering » Materials engineeringYears of Research Experience4 - 10 Research FieldChemistry » OtherYears of Research Experience1 - 4 BenefitsNet monthly salary between 1825 and 2300 € based on former experience Eligibility criteriaAccording to French legislation, the applicant must have received a PhD degree no later than three years before the beginning of the contract Selection processCV, cover letter and copy of PhD degree to be sent by email mentioning reference of job offer at : drh-recrutement-recherche@unilim.fr Website for additional job detailshttps://www.unilim.fr/luniversite-de-limoges-recrute-un-post-doctorant-projet-3…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research FieldEngineering » Materials engineeringEducation LevelPhD or equivalent Research FieldChemistry » OtherEducation LevelPhD or equivalent Skills/QualificationsBibliographic research Liquid-based material synthesis Ceramic processing and characterization of inorganic materials Specific RequirementsSafety in a chemistry laboratory enviromnent Ability to work in a restricted area Ability to write publications LanguagesENGLISHLevelGood Research FieldEngineering » Materials engineeringYears of Research Experience4 - 10 Research FieldChemistry » OtherYears of Research Experience1 - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhD or Doctorate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Université Claude Bernard Lyon 1- Hosting offer for a MSCA Post-doctoral fellowship candidate  in nanoscale engineering of materials OrganisationThe Université Claude Bernard Lyon 1 welcomes Marie Sklodowska Curie Postdoctoral Fellowships applications !With 62 laboratories and more than 7000 publications per year, and leading French university in terms of the number of patents filed in collaboration with industry, Lyon 1 contributes to scientific and innovation progress in numerous fields: health, mathematics, IT, physics, chemistry, earth and space sciences, life sciences, etc. Creator of emerging knowledge and new technologies, the University is consolidating its research excellence on a global and international level by developing inter- and multidisciplinary approaches targeting the major challenges facing today society. Host research lab/teamThe Institut des Sciences Analytiques (ISA, UMR5280) is a leading research lab in Europe in analytical sciences, with complementary expertise ranging from physical sciences and materials engineering to biochemistry and sensing. ISA teams have a unique expertise in developing innovative analytical tools for the characterization of complex systems from macro to nanoscales. The research activities are organized following three main thrusts: 1) multidimensional approaches to study complex systems, 2) surfaces and miniaturization for analytical research and technologies, 3) theoretical and experimental approaches for molecular interactions. ISA also hosts several startups and fosters collaborations with industrial partners. The Surface research teamThe team specializes in engineering physico-chemical properties of surfaces and analyzing surface properties at the micro- and nano-scales (spectra and functional imaging). The team hosts state-of-the-art microscopy and spectroscopy tools to support the work. Starting in 2024, the team is launching a new activity focusing on nanoscale engineering of materials and multifunctional nanoscale characterization using atomic force microscopy (AFM). Hosting Offer The Surfaces lab offers to host a MSCA Postdoctoral Fellowship candidate (typically a post-doc of less than 8 years research experience since PhD defence), submitting an application to the next MSCA-2024 - PF call for proposals (deadline 11th September 2024), interested to work on one of the following research topics:Development of new approaches in nanoscale infrared spectroscopyDevelopment of new AFM-based analytical tools involving mass spectroscopyExploration of the microscale and nanoscale properties of complex systems (polymers, catalysts, plants, bacteria, etc) under various stimuliThe fellowship could last for 12 to 36 months, depending on the type of Postdoctoral Fellowship. SupervisionThe successful Marie-Curie Post-doctoral fellow will be supervised by Dr. Laurene Tetard.Laurene Tetard is a CNRS Research Director. Her research interests include developing new tools for nanomanipulation and nanocharacterization of complex systems of relevance to sustainability, spanning a broad range of applications from life sciences to 2D materials for catalysis. Application processInterested candidates are invited to contact us exclusively by email at laurene.tetard@isa-lyon.fr.Make sure that you include the reference to this offer in the title of your email. Please attach a CV, a motivation letter, your MSc marks, as well as a 1 page research proposal. Professional grant application support:Candidates will receive the support of the supervisors, as well as online training from a professional grant application company, and advices from successful applicants, to prepare and submit their application with the Institute of Science Analytiques UMR 5280 as a host laboratory, to the next MSCA-PF call for proposals. - -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate, Environment and Biodiversity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhD student AI-driven innovation management Your functionYou will conduct academic research within the Innovation Management (IM) research group in close collaboration with the Business Informatics (BINF) research group, both at the Faculty of Business Economics of Hasselt University, to obtain a doctoral degree in business economics. Artificial intelligence (AI) is an exciting general purpose technology with profound implications for business. This vacancy deals with the research topic of AI-augmented innovation management, and more specifically the role of AI in innovation ecosystem orchestration. Innovation ecosystems refer to multi-organizational collaborations to develop and commercialize innovative solutions to problems. Such innovation ecosystems generally require orchestration by a keystone firm (“the orchestrator”) to ensure proper coordination and control of interrelated innovation activities. The central question of this PhD project is how new developments in AI can assist keystone firms in orchestrating larger innovation ecosystems, such that more demanding innovation problems can be effectively handled. As innovation ecosystems grow more complex, with a larger number of participating organizations and stronger interdependencies between these organizations, ensuring effective orchestration with adequate coordination and control gets increasingly difficult. This PhD project is aimed at (a) identifying how emerging AI technologies can support keystone firms with their ecosystem orchestration tasks, (b) examining organizational and strategic challenges for AI-augmented ecosystem orchestration and how these can be overcome, and (c) verifying how AI adoption affects the performance of innovation ecosystems in terms of the problem complexity they can address and the quality of their innovation outputs. The primary focus of this PhD project is to study strategic and organizational aspects in relation to AI-augmented innovation management, but a strong interest in learning more about AI technologies is also required. As such, in this project you will be able to complement your business skills with technical competencies, to develop a profile that is in high demand in the labor market within and beyond academia. We are looking for a highly motivated and talented individual to join our research team as a PhD candidate. You will publish the results of your work in academic journals, participate in international conferences and seminars, and build an international network. You will also have many opportunities for further professional development, especially through the offerings of the Doctoral School of Humanities and Social Sciences. A number of teaching tasks are also part of your assignment. This includes guiding work sessions, grading exams, and supervising master thesis students.Your teamNew developments in artificial intelligence (AI) have a profound impact on the business world and how companies organize themselves. Within this doctoral project, the aim is to investigate how AI can support innovation ecosystems in solving complex innovation problems. For this research project, there is a collaboration between the research groups Innovation Management (IM) and Business Informatics (BINF) at Hasselt University. The doctoral student will be formally appointed at the IM research group, but will receive guidance from both the IM group (promotor) and the BINF group (co-promotor). The IM research group is part of the Marketing &amp; Strategy (MARS) capacity group. The central theme of this research group is strategic innovation management, with a special focus on the disruptive forces of digitalization and sustainability and how these affect businesses. The research group strives for scientific research that is both academically outstanding and practically relevant. Research conducted at the IM research group is published in leading international scientific journals such as the Journal of Management, Journal of Management Studies, and Research Policy, as well as in practitioner magazines with a global reach such as Harvard Business Review, and MIT Sloan Management Review. Research FieldEngineeringEducation LevelMaster Degree or equivalent Skills/QualificationsYou have, or will have by October 2024, a master’s degree in Management, Business Administration, (Business) Economics, Business Engineering, Business and Information Systems Engineering (or equivalent) Final-year students are (likewise) encouraged to apply.You have a strong interest in scientific research in general and in the PhD topic specifically, which combines the themes of business and technology.You demonstrate the necessary critical attitude as a researcher.You have excellent project management skills.You have strong problem-solving skills.You work accurately with a focus on high-quality end results.You are proactive and show initiative.You can work systematically and in a self-directed manner.You can work independently as well as in a team.You have good oral and written communication skills in English.Knowledge of Dutch is a plus. LanguagesENGLISHLevelBasic Research FieldEngineering -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research FieldEngineeringEducation LevelMaster Degree or equivalent Skills/QualificationsYou have, or will have by October 2024, a master’s degree in Management, Business Administration, (Business) Economics, Business Engineering, Business and Information Systems Engineering (or equivalent) Final-year students are (likewise) encouraged to apply.You have a strong interest in scientific research in general and in the PhD topic specifically, which combines the themes of business and technology.You demonstrate the necessary critical attitude as a researcher.You have excellent project management skills.You have strong problem-solving skills.You work accurately with a focus on high-quality end results.You are proactive and show initiative.You can work systematically and in a self-directed manner.You can work independently as well as in a team.You have good oral and written communication skills in English.Knowledge of Dutch is a plus. LanguagesENGLISHLevelBasic Research FieldEngineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer Solutions, Tourism, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business development manager Let’s shape the future - University of Antwerp The University of Antwerp is a dynamic, forward-thinking, European university. We offer an innovative academic education to more than 20000 students, conduct pioneering scientific research and play an important service-providing role in society. We are one of the largest, most international and most innovative employers in the region. With more than 6000 employees from 100 different countries, we are helping to build tomorrow's world every day. Through top scientific research, we push back boundaries and set a course for the future – a future that you can help to shape. University of Antwerp is recruiting a Business Development Manager for its Centre for the Evaluation of Vaccination (CEV) which is located at Vaccinopolis, Edegem, Belgium The CEV is a research centre of the University of Antwerp (UAntwerp), headed by Prof. Van Damme, having a long standing expertise on the assessment of new vaccines and is offering services in the field of clinical trials for vaccines. Besides ambulatory vaccine trials, it offers CHIM (Controlled Human Infectious Model) studies with the goal to accelerate the evaluation and development of vaccine candidates. The CEV is located at Vaccinopolis, a new state-of-the-art facility from UAntwerp. Vaccinopolis has a unique 30-bed capacity under biosafety level-3 (BSL-3) conditions which allows it to perform CHIM studies with pathogens such as SARS-CoV-2. Next to the human challenge capability, the centre offers a large BSL-2 and BSL-3 lab capacity as well as an ambulatory vaccine trial unit. For the above services, CEV is looking for a BUSINESS DEVELOPMENT MANAGER. Position You will be responsible for developing our vaccine clinical trial service business, with a focus on CHIM studies. You will manage existing customer accounts while also developing new business opportunities with biotech and pharma companies and/or Universities and Research Institutes in Europe and Rest of the World (RoW). The position is located in Antwerp, Belgium. In this function at least 25% travel will be required. Further tasks and responsibilities You will be part of the management team and be responsible for preparing and implementing a strategic business plan based on market need, industry insights and calls for proposals of funding agencies. Ensure that the income from clinical studies is in line with the business plan. Follow up requests for proposals (RFP) and prepare them with the Vaccinopolis team in a timely and professional manner. Develop and maintain long-term business relationships with partners and strategic suppliers/subcontractors. Call on existing and potential new partners and present them with Vaccinopolis services with focus on CHIM studies, while also highlighting the other services related to vaccine clinical trials. Identify pro-actively key stakeholders and networks to establish new opportunities worldwide. Recognize new opportunities and define corresponding improvements and extension of the clinical trial service offering based on the market needs. Work with the Vaccinopolis team members to evaluate and assess new projects in order to prepare budget proposals in a given timeframe. Work with the Vaccinopolis team members to ensure that the projects are well planned and executed on time, with the required quality according to the applicable regulations and within the foreseen budget. Ensure that customers are fully informed via written and/or verbal communication. Develop contracts together with the customers in close interaction with the legal department and be responsible for their monitoring and compliance. Support client visits to Vaccinopolis. Represent and promote Vaccinopolis at conferences, meetings and networking events. Ensure that the website, LinkedIn and other social media are up-to-date. Develop various promotional materials, such as pitches and presentations and ensure that these are regularly updated. Profile A medical degree and/or a PhD in life sciences, with experience in the area of vaccines and/or infectious diseases. Minimum 10 years of relevant experience in the pharmaceutical/biotech industry, with experience in clinical trials. Experience with CHIM studies would be an asset. Minimum 5 years of experience in business development in a pharma environment. Knowledge of GCP, GMP, and GCLP. Outstanding organisational and presentation skills. Excellent relationship builder with strong communication and interpersonal skills, able to gain buy-in both internal and external. Able to manage complex projects, multi-task and plan strategically. Ability for decision-making, problem solving and to have a foresight into potential issues is required. Skills with MS Word, Excel and PowerPoint is required. You are fluent in Dutch and English. Fluency in French is an asset. What we offer We offer a fulltime appointment for an unlimited period after a positive evaluation at the end of the first year. A part-time appointment is a possibility and can be discussed. Your gross monthly salary is calculated according to the pay scales in the Contract Research Staff category (Dutch: Bijzonder Academisch Personeel, BAP). Initial pay scale will be determined on experience. The planned start date is 1 January 2025 or as soon as possible after that date. Your office will be in Vaccinopolis at Campus Drie Eiken in Edegem in a dynamic and stimulating working environment. Frequent travel will be required and home work is acceptable. Find out more about working at the University of Antwerp here. Want to apply? You can apply for this vacancy through the UAntwerp’s online job application platform up to and including 30 September 2024 (by midnight Brussels time). Click on 'apply', complete the online application form and don’t forget to include the following document(s): (1) a motivation letter, (2) your CV. The selection committee will review all of the applications as soon as possible after the application deadline. As soon as a decision has been made, we will inform you about the next steps in the selection procedure. If you have any questions about the online application form, please check the frequently asked questions or send an email to jobs@uantwerpen.be. If you have any questions about the job itself, please contact: bart.vanmeerbergen@uantwerpen.be The University of Antwerp received the European Commission’s HR Excellence in Research Award for its HR policy. We are a sustainable, family-friendly organisation which invests in its employees’ growth. We encourage diversity and attach great importance to an inclusive working environment and equal opportunities, regardless of gender identity, disability, race, ethnicity, religion or belief, sexual orientation or age. We encourage people from diverse backgrounds and with diverse characteristics to apply. Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldMedical sciencesYears of Research ExperienceMore than 10 Research FieldPharmacological sciencesYears of Research ExperienceMore than 10 Research FieldTechnologyYears of Research ExperienceMore than 10 Website for additional job detailshttps://academicpositions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldEconomicsYears of Research ExperienceMore than 10 Research FieldMedical sciencesYears of Research ExperienceMore than 10 Research FieldPharmacological sciencesYears of Research ExperienceMore than 10 Research FieldTechnologyYears of Research ExperienceMore than 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
   </si>
   <si>
     <t xml:space="preserve">PhD student in cell biology M/F Located on the Luminy campus, IBDM employs around 220 permanent researchers, lecturers, engineers and technicians, as well as non-permanent staff on fixed-term contracts, post-docs, PhD students and trainees, spread across 21 research teams and 11 technical platforms and services. IBDM is a joint research unit under the supervision of CNRS and AMU, exploring the field of developmental biology and associated pathologies. You will work in the "Mechanisms of gene regulation by transcription factors" team, led by Yacine GRABA and Andrew SAURIN. As the laboratory is made up of several nationalities, English is a must.Studying the transcriptional control of adult myogenesis in Drosophila. Considerable progress has been made in regenerative medicine to generate muscle cells. However, it is still not possible to create specific muscle types corresponding to a given location in the body, as it is not known how a muscle acquires its unique properties in the developmental space. It is widely accepted that Drosophila myogenesis recapitulates all the major events in muscle development that are also at work in vertebrates, such as progenitor specification, myoblast migration and fusion, muscle attachment to tendon cells or the assembly of contractile sarcomeres. This thesis project aims to determine how Hox transcription factors control the identity and development of two very distinct muscle types located along the anteroposterior axis of a developing organism, using Drosophila as a model. The project will use whole-genome profiling approaches to determine how Hox factors specify and coordinate the correct development of the flight and leg muscles of adult Drosophila, two major muscle types that enable adult locomotion. This thesis will provide an unprecedented high-resolution view of the development-related transcriptional regulation and structural properties of muscle fibers in a developing organism, and shed new light on the mechanisms determining muscle identity, type and repair. Research FieldBiological sciencesEducation LevelMaster Degree or equivalent Research FieldBiological sciencesEducation LevelMaster Degree or equivalent LanguagesFRENCHLevelBasic Research FieldBiological sciencesYears of Research ExperienceNone Research FieldBiological sciences » BiologyYears of Research ExperienceNone Additional commentsPlease send your CV, covering letter and, ideally, a letter of recommendation. Website for additional job detailshttps://emploi.cnrs.fr/Offres/Doctorant/UMR7288-AUDBAR-025/Default.aspx</t>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve">Research FieldAstronomyEducation LevelPhD or equivalent Research FieldAstronomyEducation LevelPhD or equivalent Research FieldAstronomyEducation LevelPhD or equivalent LanguagesFRENCHLevelBasic Research FieldAstronomyYears of Research Experience1 - 4 Research FieldAstronomy » AstrophysicsYears of Research Experience1 - 4 Research FieldAstronomy » CosmologyYears of Research Experience1 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space</t>
   </si>
   <si>
     <t xml:space="preserve">Professor of Practice, Business School Job Description:Duties and Responsibilities: Involve in the development and designing of courses and curriculum.Introduce new courses and deliver lectures as per policies of VIT.Working with students in innovation and entrepreneurship projects &amp; provide necessary mentorship and internship.To establish collaboration with industries of India and abroad.Organize seminar, workshops, special lectures in advanced areas.Carryout joint research projects or consultancy services in collaboration with the regular faculty members of VIT.Eligibility:Distinguished experts who have made remarkable contributions in their professions from various fields such as engineering, science, technology, entrepreneurship, commerce, social sciences, media, literature, fine arts, legal profession, water-harvesting, organic farming and green energy systems. Those who have proven expertise in their specific profession or role with at least 15 years of service/experience, preferably at a senior level, will be eligible for Professor of Practice.Educational Qualification:Minimum Master degree from a recognized UniversityExperience: Expertise in their specific profession or role with at least 15 years of service/experience, preferably at a senior level such as CEO, CTO, R &amp; D Head, Sr. Scientist, Manager etc.,Remuneration:Remuneration will be based on the expertise and experience. Professor scale of VIT will be applicable for full time appointment.Tenure:The engagement may be initially for one year which may be extended upto maximum 3 years.Selection Procedure:Application will be accepted online round the year. The shortlisted candidates will be interviewed by the expert committee twice in a year (November/December &amp; March/April).Department: VIT Business School (VITBS)Location: VIT, Vellore, Tamil Nadu, IndiaYears Of Exp: 15 to 20 Years - -</t>
@@ -4207,6 +4207,7 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">， </t>
     </r>
@@ -4298,7 +4299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4337,6 +4338,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -4348,6 +4357,7 @@
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4406,16 +4416,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4423,11 +4437,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4620,3541 +4634,3546 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D152" activeCellId="0" sqref="D152"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="456" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="D104" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D165" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="D174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="E175" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="F175" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="456" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D165" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>19</v>
+      <c r="B176" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Test_Results.xlsx
+++ b/Test_Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="247">
   <si>
     <t xml:space="preserve">Descriptions</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
   </si>
   <si>
     <t xml:space="preserve">ANNOUNCEMENT FOR THE AWARD OF MASTER'S DEGREE 28/ECUM/CFUM/2024 – FerrOx4Power  Research Fellowship - 1 vacancy A call for applications is now open for the attribution of 1 (one) grant of Master's Degree, within the scope of the R&amp;D project Ferroelectric (pseudo)-binary oxides nanofilms for flexible and ultrafast pulsed power electronics, 2022.01740.PTDC, financed by national funds through Foundation for Science and Technology (FCT, IP), through the Operational Program OE, under the following conditions: Scientific Area: Physics, Physics Engineering, Materials Engineering Recipient category: Students enrolled in a Degree courses. Requirement for granting the fellowship: The applicants may apply without prior registration in the course for which the fellowship is open. The requirement to enroll in a degree course will be verified on the date of contracting the fellowship; Only fellowships whose selected applicants present a valid proof of enrollment in a degree course will be contracted, according to the type of the fellowship, issued by the academic services of the Higher Education Institution, indicating, respectively, the academic year or its duration (star and term). Candidates profile: • Mandatory requirements: Graduates in Physics Engineering or Physics. • Requirements under contract: a) enrolment in a master's/Integrated master's degree in the area requested in the public notice (proof of academic qualifications completed by the deadline for applications, including those resulting from academic degree recognition processes); • Preferred factors: experience in the production of thin films by laser ablation or ion-beam sputtering, as well as in their characterization by advanced techniques. Applicants eligibility: Applicants must comply with the eligibility conditions laid down in article 9 of the Research Grants Regulation of the Portuguese Foundation for Science and Technology (2019). Workplan and objectives to be achieved: The work plan involves the preparation by laser ablation or ion-beam sputtering of multilayered thin films based on ferroelectric materials, as well as their structural, chemical, ferroelectric and electrical characterization, among others. Taking advantage of the combination of different materials, the epitaxial deformation at the interfaces between them and their mechanical interaction with selected substrates, the aim is to obtain multilayered thin films with optimized ferroelectric and energy storage properties. Applicable legislation and regulations: Research Fellowship Holder Statutes, approved by Law no. 40/2004 of August 18, in its current version published by Decree-Law no. 123/2019 of august 28; Regulation of Scientific Research Fellowships of the University of Minho (RBIC), published in “Diário da República”, 2nd serie, no. 119, through dispatch no. 6524/2020 of 22-06-2020, ratified by ratification declaration no. 447/2021 of 22-06-2021 and Regulation of Research Studentships and Fellowships (RBI) of the Foundation for Science and Technology, I.P. - in force. Host/Contracting institution and scientific supervision: The workplan will be carried out in the Physics Center of Minho and Porto Universities, in Gualtar, under the scientific guidance of Dr. José Pedro Basto da Silva and Professor Luís Silvino Alves Marques. Fellowship duration: The grant will take place for a period of 3 months, with a provisional starting date on the october of 2024. The fellowship grant is non-renewable. Amount of the research grant: The value stipend (Monthly Maintenance Allowance) is 990,98€ per month, in accordance with the stipends values published by the Foundation for Science and Technology (FCT I.P.) in the country (Annex I – Monthly Stipends Values for the maintenance allowances of the FCT Regulation for Research Studentships and Fellowships) and Annex II of the Regulation of Scientific Research Fellowships of the University of Minho (RBIC), published in “Diário da República”, 2nd serie, no. 119, through dispatch no. 6524/2020 of 22-06-2020, ratified by ratification declaration no. 447/2021 of 22-06-2021, according to the applicable regulation. Payment is made on the 23st of each month, through bank transfer to the Bank Identification Number of the fellow identified in the contractualization process. Other benefits: Reimbursement of Voluntary Social Security (Social Security contributions), corresponding to the 1st level of discounts (for research grants with a total duration 6 months or higher) and personal accident insurance. Exclusivity regime: The grantee will perform the activities under exclusivity, as foreseen in article 5º of the Research Fellow Statutes and applicable regulations. Selection panel: President: José Pedro Basto da Silva, Assistant Researcher, Centre of Physics, School of Sciences of the University of Minho; Effective Member: Mário António Caixeiro Castro Pereira, Assistant Professor, Department of Physics, School of Sciences of the University of Minho; Luís Silvino Alves Marques, Assistant Professor, Department of Physics, School of Sciences of the Minho University; Substitute member: Maria de Jesus de Matos Gomes, Full Professor, Department of Physics, School of Sciences of the Minho University; Veniero Lenzi, Doctoral Researcher, Department of Chemistry from the University of Aveiro. The first effective member will substitute the President of the selection panel in case of impediment, being nominate the first substitute member in the place of the first effective member. Criteria and procedures for applications assessment and selection: The applications assessment will focus on the candidate's Merit, following evaluation criteria, valued on a scale of 1 to 5 values: Applicant Merit - AM (100%): A.1: Academic path (considering the classifications of academic degrees), with a weighting of 50%; A.2: Personal curriculum (considering professional and scientific background), with a weighting of 40%; A.3: Motivation letter, with a weighting of 10%. The final classification of the applicant’s merit with the achieved through the following formula: MC=(A1×0,5) + (A2×0,4) + (A3×0,1) The academic degrees and diplomas documents, or their respective recognition when awarded by foreign higher education institutions are not mandatory in the application phase, being replaced by a declaration of honor of the candidate with the contents of academic results. The documents of academic qualification or respective recognition will be required in the contracting phase and must attest facts that occurred on a date prior to the application. In situations of divergence between the information contained in the declaration and the documentation submitted for contracting the grant, only the information contained in the latter will be consider. If the documents proving the ownership of the academic degree and diploma, or the respective recognition under the terms of Decree-Law No. 66/2018, of August 16, do not correspond to the classifications awarded in the evaluation of the academic path, which can change the candidate's ranking, the fellowship won’t be contracted. Disclosure of results: The provisional results of applications, based in the selection panel minutes, will be send to the applicants by email until 90 working days from the applications deadline. If case of unfavourable results, the candidates have a period of 10 working days to comment, if desired, in a prior hearing to interested parties, pursuant to articles 121 and 122 of the Code of Administrative Procedure (DL no. 4 / 2015 of January 7th). Complaint and appeal procedures: The final results of the evaluation will be published through an ordered list (alphabetically), posted in a visible and public place of the host unit, as well as by email to all applicants, enclosing for that purpose, the minutes of the jury deliberations. The selected candidate must inform its willingness to accept the grant, in writing. In case of rejection, the fellowship will be awarded to the next candidate in the ordered list of applicants. The final decision can be contested within 15 working days, by sending to the President of the jury the corresponding claim. Interested parties may also submit an optional hierarchical appeal, addressed to the Pro-Rector for Research and Projects, Professor Sandra Cristina Almeida Paiva. Application deadline and submission: The call for applications is open for 10 working days from the date of publication of the announcement on the Euraxess portal. Applications must be formalized by sending an application letter with the following documents: curriculum vitae; qualifications certificate or declaration of the applicant; motivation letter; statement proving that meets the conditions for the grant typology, according to the application requirements; other documents important to the evaluation process). Applications must be sent by email to bolsas@ecum.uminho.pt, indicating the reference of the call for applications in Subject: 28/ECUM/CFUM/2024-FerrOx4Power. Applications submitted by other means will not be accepted. Fellowship contractualization: The fellowship will be attributed by signing a fellowship contract between the University of Minho and the fellow, accordingly with the contract minute (annex IV of the Regulation of Research Fellowships of the University of Minho (RBIC), published in Diário da República, 2nd Série, no. 119, through dispatch no. 6524/2020 of 22-06-2020, ratified by ratification declaration no. 447/2021 of 22-06-2021, as indicated in 2.4 of the FCT document: “Rules for Granting and Management of Grants within the scope of R&amp;D projects, including infrastructure projects, the multi-annual financing program for R&amp;D units and other FCT financing instruments (Version 2021)”. The contract may only be concluded after all the documentation required is collected, which must take place within a maximum period of 6 months [including evidences of the academic degrees or diplomas and enrolment in degree courses or non-conferring courses, depending on the type of scholarship]. Once all the documentation has been received, the contracting entity has a period of 60 working days to conclude the scholarship contract. Once received, the fellow must return the contract duly signed within 15 working days. The activities under the fellowship contract can only began after proper authorization by the contracting entity. Term and cancellation of fellowship contracts: Without prejudice to the other causes provided the fellowship regulations (FCT and UMinho) and in the Statute of the Research Fellow, the fellowship ends with the completion of the work plan, as well as with the expiration date for which it was granted or renewed. At the end of the fellowship, the grantee is obliged to present a Final Report of the work carried out, in accordance with the objectives and evaluation criteria defined with the scientific advisor, within 30 days after the end of the scholarship. The final report must be prepared in accordance with Annex I of the Scientific Research Fellowships Regulation of the University of Minho (RBIC), published in Diário da República, 2nd Série, no. 119, through dispatch no. 6524/2020 of 22-06-2020, ratified by ratification declaration no. 447/2021 of 22-06-2021. Research FieldPhysicsEducation LevelMaster Degree or equivalent Skills/QualificationsPlease you can find the information in the Offer Description section Specific RequirementsPlease you can find the information in the Offer Description section BenefitsPlease you can find the information in the Offer Description section Eligibility criteriaPlease you can find the information in the Offer Description section Selection processPlease you can find the information in the Offer Description section Website for additional job detailshttps://www.ecum.uminho.pt/pt/Investigacao/Paginas/Emprego-Cientifico.aspx</t>
@@ -4637,7 +4634,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4671,3509 +4668,3506 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>8</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C50" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="C62" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="456" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>8</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>6</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="F108" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D117" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D122" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D124" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D125" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D137" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D143" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D146" s="4" t="n">
         <v>6</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D154" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D155" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D158" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D163" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D164" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D165" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D166" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D169" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="C174" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
